--- a/FE3 vs FE12.xlsx
+++ b/FE3 vs FE12.xlsx
@@ -9,10 +9,33 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8508"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8508" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Chapter 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Chapter 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Chapter 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Chapter 4" sheetId="4" r:id="rId4"/>
+    <sheet name="Chapter 5" sheetId="5" r:id="rId5"/>
+    <sheet name="Chapter 6" sheetId="6" r:id="rId6"/>
+    <sheet name="Chapter 7" sheetId="7" r:id="rId7"/>
+    <sheet name="Chapter 8" sheetId="8" r:id="rId8"/>
+    <sheet name="Chapter 9" sheetId="9" r:id="rId9"/>
+    <sheet name="Chapter 10" sheetId="10" r:id="rId10"/>
+    <sheet name="Chapter 11" sheetId="11" r:id="rId11"/>
+    <sheet name="Chapter 12" sheetId="12" r:id="rId12"/>
+    <sheet name="Chapter 13" sheetId="13" r:id="rId13"/>
+    <sheet name="Chapter 14" sheetId="14" r:id="rId14"/>
+    <sheet name="Chapter 15" sheetId="15" r:id="rId15"/>
+    <sheet name="Chapter 16" sheetId="16" r:id="rId16"/>
+    <sheet name="Chapter 17" sheetId="17" r:id="rId17"/>
+    <sheet name="Chapter 18" sheetId="18" r:id="rId18"/>
+    <sheet name="Chapter 19" sheetId="19" r:id="rId19"/>
+    <sheet name="Chapter 20" sheetId="20" r:id="rId20"/>
+    <sheet name="Chapter 21" sheetId="21" r:id="rId21"/>
+    <sheet name="Final-1" sheetId="22" r:id="rId22"/>
+    <sheet name="Final-2" sheetId="23" r:id="rId23"/>
+    <sheet name="Final-3" sheetId="24" r:id="rId24"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1565" uniqueCount="1234">
   <si>
     <t>One year has passed since the War of Darkness ended.</t>
   </si>
@@ -1828,6 +1851,1971 @@
   </si>
   <si>
     <t>MS001_ED1_03_PCM1</t>
+  </si>
+  <si>
+    <t>Original FE3</t>
+  </si>
+  <si>
+    <t>Edited FE12</t>
+  </si>
+  <si>
+    <t>Chapter 2: Rebellion of Macedonia</t>
+  </si>
+  <si>
+    <t>Chapter 2: Rebellion at Macedon</t>
+  </si>
+  <si>
+    <t>After the War of Darkness, Macedonia was ruled by Minerva,</t>
+  </si>
+  <si>
+    <t>who removed the generals, who had caused suffering to her people, and renovated the army.</t>
+  </si>
+  <si>
+    <t>However, the powerful General Ryuke opposed Minerva's actions.</t>
+  </si>
+  <si>
+    <t>He gathered the removed soldiers to overthrow her in a coup.</t>
+  </si>
+  <si>
+    <t>The unprepared Minerva was captured by Ryuke's followers and Macedonia fell into the control of the rebels.</t>
+  </si>
+  <si>
+    <t>They then dispatched powerful dragon knights to sternly guard the country's bordering forests.</t>
+  </si>
+  <si>
+    <t>[Katua]</t>
+  </si>
+  <si>
+    <t>Lord Marth!!</t>
+  </si>
+  <si>
+    <t>Great, so you are here.</t>
+  </si>
+  <si>
+    <t>Katua!?</t>
+  </si>
+  <si>
+    <t>I heard a rebellion broke out in Macedonia. Are you alright?</t>
+  </si>
+  <si>
+    <t>Yes. My sister, Paola, and I managed to escape, but Minerva was captured by the rebels...</t>
+  </si>
+  <si>
+    <t>Marth, please rescue Minerva! If this continues, her life will be in danger!</t>
+  </si>
+  <si>
+    <t>Of course I will.</t>
+  </si>
+  <si>
+    <t>Katua, please take me to where the princess is.</t>
+  </si>
+  <si>
+    <t>Yes! But we must break through the bordering forests in front of us...</t>
+  </si>
+  <si>
+    <t>These forests are full of General Ryuke's dragon knights.</t>
+  </si>
+  <si>
+    <t>If we approach head on, we'll be discovered by them.</t>
+  </si>
+  <si>
+    <t>Is that so...? Then we will march through the left or right side.</t>
+  </si>
+  <si>
+    <t>I understand, Katua, leave everything to us!</t>
+  </si>
+  <si>
+    <t>Be careful of thieves.</t>
+  </si>
+  <si>
+    <t>If they steal any precious items, you should take them back from them.</t>
+  </si>
+  <si>
+    <t>You mustn't let them escape.</t>
+  </si>
+  <si>
+    <t>Warren is such an idiot.</t>
+  </si>
+  <si>
+    <t>He actually joined the rebels because of money.</t>
+  </si>
+  <si>
+    <t>Oh, I remember he and Katua know one another...</t>
+  </si>
+  <si>
+    <t>The previous war caused many hardships for the countries' people.</t>
+  </si>
+  <si>
+    <t>The only country that had it easy was Emperor Hardin's Akaneia.</t>
+  </si>
+  <si>
+    <t>The thieves escaped with my family's treasured Lady Sword.</t>
+  </si>
+  <si>
+    <t>That sword can only be used by females, but it contains tremendous power.</t>
+  </si>
+  <si>
+    <t>If possible, please try and recover it.</t>
+  </si>
+  <si>
+    <t>[Male villager]</t>
+  </si>
+  <si>
+    <t>You should be careful of Luhmer.</t>
+  </si>
+  <si>
+    <t>He is carrying a Knight Killer.</t>
+  </si>
+  <si>
+    <t>Social Knights and Paladins can be defeated in one blow with that weapon!!</t>
+  </si>
+  <si>
+    <t>Recruiting Warren</t>
+  </si>
+  <si>
+    <t>Warren!?</t>
+  </si>
+  <si>
+    <t>Even you've joined the rebels...?</t>
+  </si>
+  <si>
+    <t>[Warren]</t>
+  </si>
+  <si>
+    <t>White knight, Katua, it's been a long time.</t>
+  </si>
+  <si>
+    <t>I am just a hunter.</t>
+  </si>
+  <si>
+    <t>I'll do anything as long as I get paid.</t>
+  </si>
+  <si>
+    <t>Warren, listen to me!</t>
+  </si>
+  <si>
+    <t>Princess Minerva worked hard to create a country where everybody can live and work in peace.</t>
+  </si>
+  <si>
+    <t>That was the reason why she removed those worthless generals and soldiers.</t>
+  </si>
+  <si>
+    <t>But, even knowing this, General Ryuke provoked the soldiers into joining the coup.</t>
+  </si>
+  <si>
+    <t>His only reason being because he wanted to take this country for himself.</t>
+  </si>
+  <si>
+    <t>So do you think what he's doing is right?</t>
+  </si>
+  <si>
+    <t>...Is that true?</t>
+  </si>
+  <si>
+    <t>I don't like the army doing as they please.</t>
+  </si>
+  <si>
+    <t>I understand. If you're going to rescue the princess, let me help as well.</t>
+  </si>
+  <si>
+    <t>Versus Warren</t>
+  </si>
+  <si>
+    <t>I'm sorry.</t>
+  </si>
+  <si>
+    <t>I have nothing against you, but for my work, please forgive me!</t>
+  </si>
+  <si>
+    <t>Warren falls</t>
+  </si>
+  <si>
+    <t>Damn... How could this happen...?</t>
+  </si>
+  <si>
+    <t>Versus Luhmer</t>
+  </si>
+  <si>
+    <t>[Luhmer]</t>
+  </si>
+  <si>
+    <t>Take this!</t>
+  </si>
+  <si>
+    <t>Knight Killer!!</t>
+  </si>
+  <si>
+    <t>I'll show you the horrors of the Macedonian dragon knights!</t>
+  </si>
+  <si>
+    <t>Luhmer falls</t>
+  </si>
+  <si>
+    <t>General Ryuke, I leave the rest to you...</t>
+  </si>
+  <si>
+    <t>Your highness, we found an unexpected person held captive in the fortress.</t>
+  </si>
+  <si>
+    <t>Huh? ...Linda!</t>
+  </si>
+  <si>
+    <t>What are you doing here?</t>
+  </si>
+  <si>
+    <t>[Linda]</t>
+  </si>
+  <si>
+    <t>Lord Marth! It's great to finally see you.</t>
+  </si>
+  <si>
+    <t>In order to find you, I looked all over for your news.</t>
+  </si>
+  <si>
+    <t>Then the Macedonian soldiers captured me, and took me to this fortress...</t>
+  </si>
+  <si>
+    <t>I see.</t>
+  </si>
+  <si>
+    <t>It's good to see that you're safe.</t>
+  </si>
+  <si>
+    <t>Coming here by yourself was a dangerous thing to do.</t>
+  </si>
+  <si>
+    <t>But, why were you looking for me?</t>
+  </si>
+  <si>
+    <t>Shouldn't you be by Nina's side?</t>
+  </si>
+  <si>
+    <t>Princess Nina wanted me to give this to you.</t>
+  </si>
+  <si>
+    <t>? ...!!</t>
+  </si>
+  <si>
+    <t>That's the Fire Emblem!</t>
+  </si>
+  <si>
+    <t>Isn't that the Akaneia royal family's treasured Emblem shield?!</t>
+  </si>
+  <si>
+    <t>But why give it to me?</t>
+  </si>
+  <si>
+    <t>Right now, shouldn't Akaneia be prospering under Emperor Hardin's mighty rule...?</t>
+  </si>
+  <si>
+    <t>In this peaceful age, why has Nina given the "Conqueror's Proof" to somebody like me...?</t>
+  </si>
+  <si>
+    <t>I don't know either.</t>
+  </si>
+  <si>
+    <t>Nina didn't say anything and just told me to give it to you...</t>
+  </si>
+  <si>
+    <t>I don't know why, but her eyes seemed so sad...</t>
+  </si>
+  <si>
+    <t>As if she had been crying very hard...</t>
+  </si>
+  <si>
+    <t>Nina!?</t>
+  </si>
+  <si>
+    <t>Linda, regardless, it's dangerous for you to go alone.</t>
+  </si>
+  <si>
+    <t>After this battle is over, we will return to Nina.</t>
+  </si>
+  <si>
+    <t>Before that time comes, you will travel together with us.</t>
+  </si>
+  <si>
+    <t>Understood, Lord Marth!</t>
+  </si>
+  <si>
+    <t>Leaving painful memories behind, Marth and his companions left Grust.</t>
+  </si>
+  <si>
+    <t>They landed in Macedon; their new mission to rescue Princess Minerva.</t>
+  </si>
+  <si>
+    <t>After the War of Shadows, Macedon was led by Minerva,</t>
+  </si>
+  <si>
+    <t>who exiled the oppressive generals and attempted to reform the military.</t>
+  </si>
+  <si>
+    <t>However, the influential General Rucke opposed Minerva's peace-seeking ways.</t>
+  </si>
+  <si>
+    <t>He assembled the exiled officers to instigate a coup d'etat.</t>
+  </si>
+  <si>
+    <t>Then, they dispached powerful dracoknights to guard the country's forested borders.</t>
+  </si>
+  <si>
+    <t>Carrying regretful feelings, Marth leaves Grunia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> and lands at Macedonia, to rescue Princess Minerva.</t>
+  </si>
+  <si>
+    <t>Caught unprepared, Minerva was captured by Rucke's followers, and his rebel army seized control of Macedon.</t>
+  </si>
+  <si>
+    <t>Macedon's main force consists of pegasus knights and dracoknights... Both are fast and highly mobile units. In particular, there are the Whitewings, who fought under our banner in the last war... There aren't many in these lands who could match their terrifying speeds.</t>
+  </si>
+  <si>
+    <t>Chris:</t>
+  </si>
+  <si>
+    <t>I would have loved to witness their prowess...</t>
+  </si>
+  <si>
+    <t>Chris, while we're on the subject of speed...</t>
+  </si>
+  <si>
+    <t>Your speed can be summed up as exemplary. Even the Whitewings would have trouble keeping up with you. As I'd expect of an Altean Royal Guard.</t>
+  </si>
+  <si>
+    <t>It is an honor to receive such praise, Sir Jagen.</t>
+  </si>
+  <si>
+    <t>Your speed is satisfactory. But the Whitewings would simply fly straight over you.</t>
+  </si>
+  <si>
+    <t>I see... I'll be more careful, Sir Jagen.</t>
+  </si>
+  <si>
+    <t>Your speed is, sadly, terribly lacking. The Whitewings would probably reach their destination in half your time....</t>
+  </si>
+  <si>
+    <t>I-I see... I-I'll be more careful, Sir Jagen.</t>
+  </si>
+  <si>
+    <t>Anna:</t>
+  </si>
+  <si>
+    <t>Hello there Chris.</t>
+  </si>
+  <si>
+    <t>Hm? You're...? Why do I feel like we've met somewhere before...?</t>
+  </si>
+  <si>
+    <t>How's... everyone?</t>
+  </si>
+  <si>
+    <t>I... see. Thanks, I guess.</t>
+  </si>
+  <si>
+    <t>The more time passes, the more things you'll be able to see. If you ever feel the urge, then go ahead take a peek! Well, I'll be off now. Buh-bye!</t>
+  </si>
+  <si>
+    <t>Oh, don't worry about little old me. The important thing is that I came here to share a wonderful tip with you. Have you heard about How's Everyone?</t>
+  </si>
+  <si>
+    <t>How's Everyone is all the rage! By checking it, you can see how everyone in your army is faring. You can watch your allies train, discover useful items, or even listen to their thoughts... So if you ever want to know how everyone is, then take a look at How's Everyone. Easy, right?</t>
+  </si>
+  <si>
+    <t>MS002_OP0</t>
+  </si>
+  <si>
+    <t>OP0_A</t>
+  </si>
+  <si>
+    <t>OP0_B</t>
+  </si>
+  <si>
+    <t>OP0_C</t>
+  </si>
+  <si>
+    <t>Not in the original</t>
+  </si>
+  <si>
+    <t>MTUTS_FE24</t>
+  </si>
+  <si>
+    <t>MS002_OP1</t>
+  </si>
+  <si>
+    <t>Catria:</t>
+  </si>
+  <si>
+    <t>Prince Marth!!</t>
+  </si>
+  <si>
+    <t>Thank goodness you've come to Macedon!</t>
+  </si>
+  <si>
+    <t>Catria?!</t>
+  </si>
+  <si>
+    <t>I received word that there was a rebellion in Macedon. Are you unharmed?</t>
+  </si>
+  <si>
+    <t>Yes, I'm fine. My older sister Palla and I managed to escape somehow. But Princess Minerva was captured by the rebels.</t>
+  </si>
+  <si>
+    <t>Prince Marth, please... You have to rescue Princess Minerva! At this rate, her life will be in danger!</t>
+  </si>
+  <si>
+    <t>Of course I will help her.</t>
+  </si>
+  <si>
+    <t>Catria, please take us to where she is.</t>
+  </si>
+  <si>
+    <t>Yes, my lord! But first we have to break through these woods.</t>
+  </si>
+  <si>
+    <t>General Rumel's dragon knight squad is lurking within this area.</t>
+  </si>
+  <si>
+    <t>If we approach from the front, we'll be easy pickings for them.</t>
+  </si>
+  <si>
+    <t>I see... So you're suggesting we flank them from the left or the right.</t>
+  </si>
+  <si>
+    <t>Thank you, Catria. Leave it to us!</t>
+  </si>
+  <si>
+    <t>Houses</t>
+  </si>
+  <si>
+    <t>Female Villager:</t>
+  </si>
+  <si>
+    <t>Look out for those pilfering thieves.</t>
+  </si>
+  <si>
+    <t>If they take off with your precious treasure, you won't ever get it back.</t>
+  </si>
+  <si>
+    <t>Never let them escape from your sight.</t>
+  </si>
+  <si>
+    <t>Male Villager:</t>
+  </si>
+  <si>
+    <t>Warren's a bit of an idiot.</t>
+  </si>
+  <si>
+    <t>Just 'cause they payed him well, he went ahead and joined the rebel army!</t>
+  </si>
+  <si>
+    <t>Ahh, to think a fool like him was once acquainted with the fair Catria...</t>
+  </si>
+  <si>
+    <t>Old man:</t>
+  </si>
+  <si>
+    <t>Because of the last war, every nation has been forced to lead hard lives.</t>
+  </si>
+  <si>
+    <t>The only well-off country is Archanea, ruled by Emperor Hardin.</t>
+  </si>
+  <si>
+    <t>Some dirty thieves took our village treasure, the Lady Sword, and ran off with it.</t>
+  </si>
+  <si>
+    <t>Only women can wield the incredible power of that sword.</t>
+  </si>
+  <si>
+    <t>Please, prise it back from their filthy hands.</t>
+  </si>
+  <si>
+    <t>Beware when dracoknights are around.</t>
+  </si>
+  <si>
+    <t>Even from a far-off distance, they can move all at once and swoop down on you!</t>
+  </si>
+  <si>
+    <t>MS002_H1</t>
+  </si>
+  <si>
+    <t>MS002_H2</t>
+  </si>
+  <si>
+    <t>MS002_H3</t>
+  </si>
+  <si>
+    <t>MS002_H4</t>
+  </si>
+  <si>
+    <t>MS002_H5</t>
+  </si>
+  <si>
+    <t>MS002_TK1</t>
+  </si>
+  <si>
+    <t>Warren?!</t>
+  </si>
+  <si>
+    <t>Even a good man like you has sided with the rebel army...</t>
+  </si>
+  <si>
+    <t>Warren:</t>
+  </si>
+  <si>
+    <t>Catria the White, huh? It's been a while.</t>
+  </si>
+  <si>
+    <t>You know I'm just a common hunter.</t>
+  </si>
+  <si>
+    <t>If they pay me enough, I'll do anything.</t>
+  </si>
+  <si>
+    <t>Princess Minerva endeavored to create a country where its people could live at ease.</t>
+  </si>
+  <si>
+    <t>She exiled soldiers and generals of ill repute to accomplish that goal.</t>
+  </si>
+  <si>
+    <t>But General Rucke, despite knowing this, roused the soldiers into a coup d'etat.</t>
+  </si>
+  <si>
+    <t>Can't you see? He's just trying to make this country into his own!</t>
+  </si>
+  <si>
+    <t>And you can honestly say you're okay with that?</t>
+  </si>
+  <si>
+    <t>...I see.</t>
+  </si>
+  <si>
+    <t>Well, I don't like the military acting as if they owned the place...</t>
+  </si>
+  <si>
+    <t>Alright then. If you're going to help the princess, then so will I.</t>
+  </si>
+  <si>
+    <t>Cord:</t>
+  </si>
+  <si>
+    <t>O'er here! Prince Marth!</t>
+  </si>
+  <si>
+    <t>You're... Cord! What are you doing so far from Talys?</t>
+  </si>
+  <si>
+    <t>I couldn't sit still when I heard you's fighting again, so I came to join in. We're Talys's mercenaries, right? If ya died, Princess Caeda'd cry. Prince Marth, lemme fight too. I'll join you's army.</t>
+  </si>
+  <si>
+    <t>MS002_VIL1</t>
+  </si>
+  <si>
+    <t>FE12 adds a massive amount of characters compared to FE3 Book 2.</t>
+  </si>
+  <si>
+    <t>Maji here is the first of many, OC's not withstanding.</t>
+  </si>
+  <si>
+    <t>MS002_BT_WOLEN</t>
+  </si>
+  <si>
+    <t>No hard feelings.</t>
+  </si>
+  <si>
+    <t>I don't have anything against you, but this is the way I live. Forgive me!</t>
+  </si>
+  <si>
+    <t>Damn it... I should've seen this coming...</t>
+  </si>
+  <si>
+    <t>MS002_DIE_WOLEN</t>
+  </si>
+  <si>
+    <t>MS002_BT_BOSS</t>
+  </si>
+  <si>
+    <t>Taste the terror of Macedon's fearless dracoknight squad!</t>
+  </si>
+  <si>
+    <t>Lumel:</t>
+  </si>
+  <si>
+    <t>MS002_DIE_BOSS</t>
+  </si>
+  <si>
+    <t>General Rucke, I leave the rest to you...</t>
+  </si>
+  <si>
+    <t>Sire, we found someone most unusual confined in one of the fortress rooms.</t>
+  </si>
+  <si>
+    <t>Hm? ...Linde!</t>
+  </si>
+  <si>
+    <t>How did you wind up in a dangerous place like this?</t>
+  </si>
+  <si>
+    <t>Sire, do you know this woman?</t>
+  </si>
+  <si>
+    <t>Yes, this is Linde.</t>
+  </si>
+  <si>
+    <t>Her natural talent for magic helped us a great deal in the last war.</t>
+  </si>
+  <si>
+    <t>Linde:</t>
+  </si>
+  <si>
+    <t>Prince Marth! Thank heavens. What a pleasant surprise meeting you here.</t>
+  </si>
+  <si>
+    <t>I desperately needed to see you again, so I set out to find you.</t>
+  </si>
+  <si>
+    <t>But the Macedonian soldiers found me suspicious and they dragged me to this fortress...</t>
+  </si>
+  <si>
+    <t>Is that so?</t>
+  </si>
+  <si>
+    <t>I'm glad you're safe.</t>
+  </si>
+  <si>
+    <t>Shouldn't you be by Princess Nyna's side?</t>
+  </si>
+  <si>
+    <t>I was requested by Princess Nyna to deliver you this.</t>
+  </si>
+  <si>
+    <t>Huh? This...!</t>
+  </si>
+  <si>
+    <t>This is the Fire Emblem!</t>
+  </si>
+  <si>
+    <t>The royal heirloom of Archanea: the Emblem Shield!</t>
+  </si>
+  <si>
+    <t>MS002_ED1_PCM1</t>
+  </si>
+  <si>
+    <t>MS002_ED1_02_PCM1 begins here</t>
+  </si>
+  <si>
+    <t>The Fire Emblem...</t>
+  </si>
+  <si>
+    <t>I heard that in the last war, Princess Nyna entrusted you with it, sire...</t>
+  </si>
+  <si>
+    <t>Indeed. I looked after this as Archanea's representative in the last war.</t>
+  </si>
+  <si>
+    <t>But why give this to me now?</t>
+  </si>
+  <si>
+    <t>Especially at a time when Archanea has so much influence under Emperor Hardin's reign?</t>
+  </si>
+  <si>
+    <t>In this peaceful age, why is Princess Nyna giving me the Champion's Proof...?</t>
+  </si>
+  <si>
+    <t>I don't understand either.</t>
+  </si>
+  <si>
+    <t>Princess Nyna didn't explain why, just that I had to give it to you...</t>
+  </si>
+  <si>
+    <t>I remember her eyes seemed so sad...</t>
+  </si>
+  <si>
+    <t>I think she may have been crying...</t>
+  </si>
+  <si>
+    <t>Princess Nyna crying?!</t>
+  </si>
+  <si>
+    <t>What on earth has been happening...?</t>
+  </si>
+  <si>
+    <t>Linde, after this battle ends, I will go see Princess Nyna.</t>
+  </si>
+  <si>
+    <t>Until then, I want you to remain with us.</t>
+  </si>
+  <si>
+    <t>Yes, Prince Marth!!</t>
+  </si>
+  <si>
+    <t>FE3</t>
+  </si>
+  <si>
+    <t>FE12</t>
+  </si>
+  <si>
+    <t>Chapter 3: Abducted Princess</t>
+  </si>
+  <si>
+    <t>At one time, the Macedonia region was ruled by the Durhua Empire.</t>
+  </si>
+  <si>
+    <t>100 years ago the whole continent was controlled by the dragon tribe,</t>
+  </si>
+  <si>
+    <t>who sent numerous slaves to these undeveloped forests.</t>
+  </si>
+  <si>
+    <t>The slaves were forced to excavate ruins and construct the country.</t>
+  </si>
+  <si>
+    <t>Many people could not find food, were forced to work, and died from abuse.</t>
+  </si>
+  <si>
+    <t>Amongst such tragic conditions, finally one youth stood up.</t>
+  </si>
+  <si>
+    <t>His name was Iote.</t>
+  </si>
+  <si>
+    <t>After Durhua's fall, the slaves established their own country at these rich and newly developed lands.</t>
+  </si>
+  <si>
+    <t>And the heroic Iote was encouraged to become its first king.</t>
+  </si>
+  <si>
+    <t>But now, even the "Red Dragon Knight", Princess Minerva, has been lost.</t>
+  </si>
+  <si>
+    <t>[Paola]</t>
+  </si>
+  <si>
+    <t>Julian!</t>
+  </si>
+  <si>
+    <t>Katua has finally brought the Aritian knights here.</t>
+  </si>
+  <si>
+    <t>I will go with them to rescue Princess Minerva.</t>
+  </si>
+  <si>
+    <t>Please take Rena and hurry to safety.</t>
+  </si>
+  <si>
+    <t>[Julian]</t>
+  </si>
+  <si>
+    <t>That isn't possible, Paola.</t>
+  </si>
+  <si>
+    <t>Miss Rena's gone missing... I'm not leaving just by myself.</t>
+  </si>
+  <si>
+    <t>Huh, Rena's also...</t>
+  </si>
+  <si>
+    <t>Princess Maria has also vanished. Why are the sisters the only ones missing...?</t>
+  </si>
+  <si>
+    <t>Anyway, I'm staying to search the village.</t>
+  </si>
+  <si>
+    <t>So, apologies, but I can't help you rescue your princess.</t>
+  </si>
+  <si>
+    <t>Oh, it's alright.</t>
+  </si>
+  <si>
+    <t>We should be able to save Minerva by ourselves.</t>
+  </si>
+  <si>
+    <t>But Julian, although I know you're worried about Rena, don't push yourself.</t>
+  </si>
+  <si>
+    <t>Ah... I'm sorry, Paola.</t>
+  </si>
+  <si>
+    <t>Say "hi" to Prince Marth for me.</t>
+  </si>
+  <si>
+    <t>Turn 2 (Enemy phase)</t>
+  </si>
+  <si>
+    <t>[Misheil]</t>
+  </si>
+  <si>
+    <t>Ryuke, a coward like you wouldn't dare to do something this big.</t>
+  </si>
+  <si>
+    <t>Did Hardin fool you with his fancy words?</t>
+  </si>
+  <si>
+    <t>[Ryuke]</t>
+  </si>
+  <si>
+    <t>Ah! ...You are...</t>
+  </si>
+  <si>
+    <t>How are you still...?</t>
+  </si>
+  <si>
+    <t>You thought I was dead?</t>
+  </si>
+  <si>
+    <t>Haha... Nevermind.</t>
+  </si>
+  <si>
+    <t>Give Minerva back to me.</t>
+  </si>
+  <si>
+    <t>I don't care about this country anymore.</t>
+  </si>
+  <si>
+    <t>You can do what you want with it.</t>
+  </si>
+  <si>
+    <t>However, I won't rest until I have dealt with "that guy" personally.</t>
+  </si>
+  <si>
+    <t>Yes... But...</t>
+  </si>
+  <si>
+    <t>Princess Minerva has already breathed her last...</t>
+  </si>
+  <si>
+    <t>She cannot be saved...</t>
+  </si>
+  <si>
+    <t>Don't waste my time.</t>
+  </si>
+  <si>
+    <t>Hand her over now, or do you prefer to die by my lance?</t>
+  </si>
+  <si>
+    <t>O-okay! I understand.</t>
+  </si>
+  <si>
+    <t>Hey, you, bring the princess here!</t>
+  </si>
+  <si>
+    <t>Minerva, it's been a while.</t>
+  </si>
+  <si>
+    <t>This isn't like you at all.</t>
+  </si>
+  <si>
+    <t>Losing your precious Maria, and even being abandoned by your men.</t>
+  </si>
+  <si>
+    <t>Is this really the perfect country that you wanted?</t>
+  </si>
+  <si>
+    <t>[Minerva]</t>
+  </si>
+  <si>
+    <t>Mi... Misheil...</t>
+  </si>
+  <si>
+    <t>How...?</t>
+  </si>
+  <si>
+    <t>Your highness. Thank you for rescuing this village.</t>
+  </si>
+  <si>
+    <t>We don't have much to reward you with, but please take this Silver Axe.</t>
+  </si>
+  <si>
+    <t>It is a very expensive item, so it should fetch a good price in the shops.</t>
+  </si>
+  <si>
+    <t>I'll tell you a secret.</t>
+  </si>
+  <si>
+    <t>That armoury seems to have connections with the rebels.</t>
+  </si>
+  <si>
+    <t>If you're going to visit it, be extra careful.</t>
+  </si>
+  <si>
+    <t>[Female villager]</t>
+  </si>
+  <si>
+    <t>Not long ago, there was a travelling paladin who visited here.</t>
+  </si>
+  <si>
+    <t>He was wearing a mask, but I bet he's a really handsome person underneath.</t>
+  </si>
+  <si>
+    <t>He was very gentle, but he seemed very sorrowful as well.</t>
+  </si>
+  <si>
+    <t>Sigh, will I see him again?</t>
+  </si>
+  <si>
+    <t>Without Est, the Pegasus sisters have become really lonely.</t>
+  </si>
+  <si>
+    <t>I am a fan of their Triangle Attack...</t>
+  </si>
+  <si>
+    <t>Oh, Est...</t>
+  </si>
+  <si>
+    <t>Please come back soon.</t>
+  </si>
+  <si>
+    <t>What's going to happen to Macedonia now?</t>
+  </si>
+  <si>
+    <t>First they said Prince Misheil died, then Princess Maria went missing...</t>
+  </si>
+  <si>
+    <t>And now Princess Minerva has been captured, and her life is in danger.</t>
+  </si>
+  <si>
+    <t>This country won't become like Grunia, right...?</t>
+  </si>
+  <si>
+    <t>Recruiting Julian</t>
+  </si>
+  <si>
+    <t>Your highness, it's been a long time.</t>
+  </si>
+  <si>
+    <t>It's me, Julian.</t>
+  </si>
+  <si>
+    <t>Julian!?</t>
+  </si>
+  <si>
+    <t>Is Rena well?</t>
+  </si>
+  <si>
+    <t>Of course, since she is with you.</t>
+  </si>
+  <si>
+    <t>Well...</t>
+  </si>
+  <si>
+    <t>Miss Rena suddenly disappeared...</t>
+  </si>
+  <si>
+    <t>I... What should I do?</t>
+  </si>
+  <si>
+    <t>Huh?</t>
+  </si>
+  <si>
+    <t>Wait, Julian, what happened?</t>
+  </si>
+  <si>
+    <t>Miss Rena vanished yesterday.</t>
+  </si>
+  <si>
+    <t>I heard from the villagers that a nasty-looking bishop came by.</t>
+  </si>
+  <si>
+    <t>It seems Miss Rena was taken by him.</t>
+  </si>
+  <si>
+    <t>A bishop...?</t>
+  </si>
+  <si>
+    <t>Julian! I heard Princess Maria has also gone missing.</t>
+  </si>
+  <si>
+    <t>I have a bad feeling about all of this.</t>
+  </si>
+  <si>
+    <t>Anyway, staying here won't achieve anything.</t>
+  </si>
+  <si>
+    <t>You should come with us.</t>
+  </si>
+  <si>
+    <t>I am also worried about Rena.</t>
+  </si>
+  <si>
+    <t>We can help you look for her.</t>
+  </si>
+  <si>
+    <t>Thank you.</t>
+  </si>
+  <si>
+    <t>Recruiting Machis</t>
+  </si>
+  <si>
+    <t>Hey! That was uncalled for.</t>
+  </si>
+  <si>
+    <t>Why do you always keep picking on me?</t>
+  </si>
+  <si>
+    <t>If you continue like this, you'll make Miss Rena sad.</t>
+  </si>
+  <si>
+    <t>[Machis]</t>
+  </si>
+  <si>
+    <t>Oh, it's Julian.</t>
+  </si>
+  <si>
+    <t>Are you still clinging onto Rena?</t>
+  </si>
+  <si>
+    <t>No way, I'm not handing my cute sister to a thief like you.</t>
+  </si>
+  <si>
+    <t>Don't worry...</t>
+  </si>
+  <si>
+    <t>Rena and I aren't that close.</t>
+  </si>
+  <si>
+    <t>I just want to help her, any little that I can.</t>
+  </si>
+  <si>
+    <t>Oh, I finally understand.</t>
+  </si>
+  <si>
+    <t>You're really cool, Julian!</t>
+  </si>
+  <si>
+    <t>Well, I... uh... never expected to hear you say that...</t>
+  </si>
+  <si>
+    <t>Nevermind.</t>
+  </si>
+  <si>
+    <t>If you're worried about Rena, come with us.</t>
+  </si>
+  <si>
+    <t>Oh, really? Thanks.</t>
+  </si>
+  <si>
+    <t>I was forced to join the rebels. I didn't really want to fight.</t>
+  </si>
+  <si>
+    <t>Well, "little brother", let's join forces to find my cute Rena!</t>
+  </si>
+  <si>
+    <t>Versus Machis</t>
+  </si>
+  <si>
+    <t>Rena...</t>
+  </si>
+  <si>
+    <t>Where are you?</t>
+  </si>
+  <si>
+    <t>Even just once, I want to see you before I die...</t>
+  </si>
+  <si>
+    <t>Machis falls</t>
+  </si>
+  <si>
+    <t>Forgive this useless brother.</t>
+  </si>
+  <si>
+    <t>Versus Ryuke</t>
+  </si>
+  <si>
+    <t>Da-damn...</t>
+  </si>
+  <si>
+    <t>Why would Aritia...</t>
+  </si>
+  <si>
+    <t>I'll send you to your graves, die!</t>
+  </si>
+  <si>
+    <t>Ryuke falls</t>
+  </si>
+  <si>
+    <t>The Aritian knights...</t>
+  </si>
+  <si>
+    <t>Truly impressive...</t>
+  </si>
+  <si>
+    <t>Jeigan, how is the situation at the castle?</t>
+  </si>
+  <si>
+    <t>Have they found Minerva yet?</t>
+  </si>
+  <si>
+    <t>Right, about that...</t>
+  </si>
+  <si>
+    <t>Although the enemy has fled, there seems to be no trace of the princess.</t>
+  </si>
+  <si>
+    <t>Huh, why is that?</t>
+  </si>
+  <si>
+    <t>Minerva should have been taken here...</t>
+  </si>
+  <si>
+    <t>Ah... Your highness, General Lang appears to have arrived.</t>
+  </si>
+  <si>
+    <t>I wonder what kind of nonsensical request he's going to give us this time.</t>
+  </si>
+  <si>
+    <t>Ah, I should have expected no less from you, Lord Marth.</t>
+  </si>
+  <si>
+    <t>Very impressive. Good work.</t>
+  </si>
+  <si>
+    <t>Leave Macedonia to me.</t>
+  </si>
+  <si>
+    <t>Your highness, you have a new mission.</t>
+  </si>
+  <si>
+    <t>General Lang, what is it this time?</t>
+  </si>
+  <si>
+    <t>...Well...</t>
+  </si>
+  <si>
+    <t>My castle was attacked, and the captured Grunian royal children appear to have been taken.</t>
+  </si>
+  <si>
+    <t>The culprit seems to have escaped to Macedonia.</t>
+  </si>
+  <si>
+    <t>Your highness, you will chase after them and bring back the royal children!</t>
+  </si>
+  <si>
+    <t>What!?</t>
+  </si>
+  <si>
+    <t>Really, those children...</t>
+  </si>
+  <si>
+    <t>They're safe... That's great.</t>
+  </si>
+  <si>
+    <t>General Lang, I will not follow your orders.</t>
+  </si>
+  <si>
+    <t>We're going back to our own country.</t>
+  </si>
+  <si>
+    <t>What did you say!?</t>
+  </si>
+  <si>
+    <t>You're going to disobey my orders?</t>
+  </si>
+  <si>
+    <t>So you were behind it, I knew it.</t>
+  </si>
+  <si>
+    <t>What? What do you mean?</t>
+  </si>
+  <si>
+    <t>The one who escaped with the royal children was Oguma, the Talis mercenary.</t>
+  </si>
+  <si>
+    <t>He once served under your highness, correct?</t>
+  </si>
+  <si>
+    <t>It was you who ordered Oguma to escape with those two!</t>
+  </si>
+  <si>
+    <t>I don't know a thing.</t>
+  </si>
+  <si>
+    <t>But if I could, I would have done just that.</t>
+  </si>
+  <si>
+    <t>Since that time, when I couldn't rescue the two, I have been deeply regretful.</t>
+  </si>
+  <si>
+    <t>Even if I must fight you, I will still rescue them.</t>
+  </si>
+  <si>
+    <t>What, you!</t>
+  </si>
+  <si>
+    <t>Your actions are treasonous!</t>
+  </si>
+  <si>
+    <t>Do you want me to inform Emperor Hardin about this!?</t>
+  </si>
+  <si>
+    <t>Go ahead.</t>
+  </si>
+  <si>
+    <t>We're planning on going to Pales anyway.</t>
+  </si>
+  <si>
+    <t>We will inform Hardin and Nina of the truth, and of your crimes.</t>
+  </si>
+  <si>
+    <t>Jeigan, I'm sorry, but I can no longer stay silent.</t>
+  </si>
+  <si>
+    <t>I want to find Oguma, so we can rescue those children.</t>
+  </si>
+  <si>
+    <t>I understand.</t>
+  </si>
+  <si>
+    <t>You've had to stay patient for so long.</t>
+  </si>
+  <si>
+    <t>I have also already reached my limits.</t>
+  </si>
+  <si>
+    <t>Lang, you have constantly mocked our prince of Aritia with your actions.</t>
+  </si>
+  <si>
+    <t>Even if his highness could forgive you, I certainly could not.</t>
+  </si>
+  <si>
+    <t>Come, draw your sword.</t>
+  </si>
+  <si>
+    <t>Even though I, Jeigan, am old, I will not lose to somebody like you.</t>
+  </si>
+  <si>
+    <t>Wh-what...!</t>
+  </si>
+  <si>
+    <t>Damn, you... I will not forgive you for this!!</t>
+  </si>
+  <si>
+    <t>I will inform the Emperor, and turn Aritia into dust!</t>
+  </si>
+  <si>
+    <t>Mark my words!</t>
+  </si>
+  <si>
+    <t>Ha... He fled fast despite his big words.</t>
+  </si>
+  <si>
+    <t>He should be pretty faraway by now.</t>
+  </si>
+  <si>
+    <t>Jeigan...</t>
+  </si>
+  <si>
+    <t>You really surprised me.</t>
+  </si>
+  <si>
+    <t>I couldn't believe you would say something like that.</t>
+  </si>
+  <si>
+    <t>You think I'm too old?</t>
+  </si>
+  <si>
+    <t>Haha... Your highness, I won't lose to you youths just yet.</t>
+  </si>
+  <si>
+    <t>That said. Even I, who persuaded your highness to stay calm, got into a dispute with Lang.</t>
+  </si>
+  <si>
+    <t>I was too careless.</t>
+  </si>
+  <si>
+    <t>What should we do next?</t>
+  </si>
+  <si>
+    <t>Hmm.</t>
+  </si>
+  <si>
+    <t>Well, we should go and find Oguma.</t>
+  </si>
+  <si>
+    <t>If Lang was correct, he should have come to Macedonia.</t>
+  </si>
+  <si>
+    <t>I bet he's probably heading for the village of Wendel's residence.</t>
+  </si>
+  <si>
+    <t>Even though I'm worried about Minerva, there's nothing we can do right now.</t>
+  </si>
+  <si>
+    <t>We should go and meet Wendel as well.</t>
+  </si>
+  <si>
+    <t>Understood.</t>
+  </si>
+  <si>
+    <t>But, I wonder about Lang...</t>
+  </si>
+  <si>
+    <t>I hope nothing bad will happen...</t>
+  </si>
+  <si>
+    <t>He and his companions escaped from the forests and fought, riding dragons, to continue the battle of liberation.</t>
+  </si>
+  <si>
+    <t>Once upon a time, the region of Macedon was a territory under Dolhrian rule.</t>
+  </si>
+  <si>
+    <t>A century ago, the dragonkin rulers</t>
+  </si>
+  <si>
+    <t>sent many slaves to these wild forests,</t>
+  </si>
+  <si>
+    <t>to excavate ruins and build a country.</t>
+  </si>
+  <si>
+    <t>Many slaves were forced to work to their limits, barely fed, and then slaughtered.</t>
+  </si>
+  <si>
+    <t>A young man stood up against such tragic conditions.</t>
+  </si>
+  <si>
+    <t>Iote was his name.</t>
+  </si>
+  <si>
+    <t>He and his companions fled to the forests and fought, astride wyverns, to free the slaves.</t>
+  </si>
+  <si>
+    <t>After Dolhr's demise, the slaves established their own country in these now abundant lands.</t>
+  </si>
+  <si>
+    <t>And the hero Iote was chosen as their first king.</t>
+  </si>
+  <si>
+    <t>Afterwards the Kingdom of Macedonia was feared as the land of dragon knights, and that was how it was born.</t>
+  </si>
+  <si>
+    <t>And so was born the Kingdom of Macedon, later feared as the domain of dracoknights.</t>
+  </si>
+  <si>
+    <t>However, this strong country not only lost its Prince Misheil, said to be the second coming of Iote.</t>
+  </si>
+  <si>
+    <t>However, the mighty Macedon was stripped of Prince Michalis, said to be the second coming of Iote,</t>
+  </si>
+  <si>
+    <t>and is now on the brink of losing Princess Minerva, the so-called "Crimson Dragoon."</t>
+  </si>
+  <si>
+    <t>Hah! Hyah!</t>
+  </si>
+  <si>
+    <t>I see you train without the need for sleep. Most admirable, Chris.</t>
+  </si>
+  <si>
+    <t>Ah, Sir Jagen.</t>
+  </si>
+  <si>
+    <t>A strong offense and a tough defense are obviously important, but... You cannot afford to neglect your skill. Without the skill to deliver it, it matters not how mighty your attack is if it does not reach the enemy. Speaking of which...</t>
+  </si>
+  <si>
+    <t>(If Skill is high)</t>
+  </si>
+  <si>
+    <t>Your skill is like that of an expert... I have nothing to add. Keep up the good work.</t>
+  </si>
+  <si>
+    <t>Thank you, Sir Jagen.</t>
+  </si>
+  <si>
+    <t>(If Skill is decent)</t>
+  </si>
+  <si>
+    <t>Your skill is not bad. Don't fall behind the other knights. The experience you gain from training and combat, will help elevate your skill further. Be ever diligent.</t>
+  </si>
+  <si>
+    <t>Yes, Sir Jagen.</t>
+  </si>
+  <si>
+    <t>(If Skill is poor)</t>
+  </si>
+  <si>
+    <t>Your skill is still insufficient... It ought to be better than this. You may or may not have the talent for it, but don't give up... The more experience you gain from training and combat, the more you can refine your skill. Be ever diligent.</t>
+  </si>
+  <si>
+    <t>Y-yes, Sir Jagen.</t>
+  </si>
+  <si>
+    <t>MS003_OP0</t>
+  </si>
+  <si>
+    <t>MS003_OP1</t>
+  </si>
+  <si>
+    <t>Palla:</t>
+  </si>
+  <si>
+    <t>Julian, good news!</t>
+  </si>
+  <si>
+    <t>Catria finally brought the Altean army for us!</t>
+  </si>
+  <si>
+    <t>We're going to join their ranks to help save Princess Minerva.</t>
+  </si>
+  <si>
+    <t>Please take Lena and escape to safety, quickly!</t>
+  </si>
+  <si>
+    <t>Julian:</t>
+  </si>
+  <si>
+    <t>No can do, Palla.</t>
+  </si>
+  <si>
+    <t>Lena's disappeared... I'm not leaving by myself.</t>
+  </si>
+  <si>
+    <t>What? Lena as well...</t>
+  </si>
+  <si>
+    <t>Princess Maria is missing too; why is it only clerics...?</t>
+  </si>
+  <si>
+    <t>Anyway, I'm staying in the village to see if I can't find any information.</t>
+  </si>
+  <si>
+    <t>Sorry, Palla.</t>
+  </si>
+  <si>
+    <t>Give my best to Prince Marth.</t>
+  </si>
+  <si>
+    <t>Silver Axe village</t>
+  </si>
+  <si>
+    <t>Michalis:</t>
+  </si>
+  <si>
+    <t>Rucke, I'm impressed a spineless coward like you could throw this country into so much chaos.</t>
+  </si>
+  <si>
+    <t>I'll hazard a guess that Hardin talked you into this?</t>
+  </si>
+  <si>
+    <t>Rucke:</t>
+  </si>
+  <si>
+    <t>Wha-! ...Y-you're...</t>
+  </si>
+  <si>
+    <t>B-but how...</t>
+  </si>
+  <si>
+    <t>Thought I was dead?</t>
+  </si>
+  <si>
+    <t>Haha... My death was but a trifle.</t>
+  </si>
+  <si>
+    <t>Hand Minerva over to me, Rucke.</t>
+  </si>
+  <si>
+    <t>I no longer have plans for this country.</t>
+  </si>
+  <si>
+    <t>Do with it as you please.</t>
+  </si>
+  <si>
+    <t>However, I won't rest until I've disposed of "him" with my own hands.</t>
+  </si>
+  <si>
+    <t>U-uhh... but,</t>
+  </si>
+  <si>
+    <t>Princess Minerva is barely breathing...</t>
+  </si>
+  <si>
+    <t>Nobody could save her now...</t>
+  </si>
+  <si>
+    <t>Do you want me to shove this spear down your throat? I said bring her to me.</t>
+  </si>
+  <si>
+    <t>Y-yes, of course.</t>
+  </si>
+  <si>
+    <t>S-somebody, bring the princess here!</t>
+  </si>
+  <si>
+    <t>It's been a while, Minerva.</t>
+  </si>
+  <si>
+    <t>That ungainly appearance doesn't suit you.</t>
+  </si>
+  <si>
+    <t>Losing Maria; your subordinates abandoning you...</t>
+  </si>
+  <si>
+    <t>Is this the ideal country you dreamed of?</t>
+  </si>
+  <si>
+    <t>Minerva:</t>
+  </si>
+  <si>
+    <t>Mi... Michalis...</t>
+  </si>
+  <si>
+    <t>MS003_EV1</t>
+  </si>
+  <si>
+    <t>MS003_EV1_02</t>
+  </si>
+  <si>
+    <t>MS003_VIL1</t>
+  </si>
+  <si>
+    <t>Even though I heard you went to Macedonia with Rena, I didn't expect to see you here…</t>
+  </si>
+  <si>
+    <t>Hey Prince, it's been a while, hasn't it?</t>
+  </si>
+  <si>
+    <t>It's me, Julian!</t>
+  </si>
+  <si>
+    <t>Julian?</t>
+  </si>
+  <si>
+    <t>I'd heard that you'd gone to Macedon with Lena, but to think we'd cross paths here...</t>
+  </si>
+  <si>
+    <t>How is Lena?</t>
+  </si>
+  <si>
+    <t>Of course, she's with you, right?</t>
+  </si>
+  <si>
+    <t>Well, er, how should I say this...</t>
+  </si>
+  <si>
+    <t>Lena suddenly up and vanished...</t>
+  </si>
+  <si>
+    <t>I... I don't know what to do.</t>
+  </si>
+  <si>
+    <t>Wait, Julian, tell me what happened, in detail.</t>
+  </si>
+  <si>
+    <t>Lena's been missing since last night.</t>
+  </si>
+  <si>
+    <t>The villagers speak of some sort of strange priest prowling around lately.</t>
+  </si>
+  <si>
+    <t>It seems that somehow, Lena was taken by this man.</t>
+  </si>
+  <si>
+    <t>A priest...?</t>
+  </si>
+  <si>
+    <t>Julian, as it turns out, Princess Maria has gone missing as well.</t>
+  </si>
+  <si>
+    <t>I have a terrible feeling about this.</t>
+  </si>
+  <si>
+    <t>Anyway, staying here won't solve anything.</t>
+  </si>
+  <si>
+    <t>Come with us.</t>
+  </si>
+  <si>
+    <t>I'm worried for Lena too.</t>
+  </si>
+  <si>
+    <t>We'll all help to look for her.</t>
+  </si>
+  <si>
+    <t>Thank you. Nothing would please me more.</t>
+  </si>
+  <si>
+    <t>You, you're Bord! You've came to Macedon as well?</t>
+  </si>
+  <si>
+    <t>Bord:</t>
+  </si>
+  <si>
+    <t>Long time no see, Prince. Cord already joined with you's guys, right? We Talysian mercenaries wanted to join you's army, so we came all the way here. Princess Caeda's our lady, and the guy who's gonna be her man is important to us too. Prince Marth, I'll protect you with my life.</t>
+  </si>
+  <si>
+    <t>This is just between you and me,</t>
+  </si>
+  <si>
+    <t>but I heard that armory is in league with the rebels.</t>
+  </si>
+  <si>
+    <t>If you're going to enter you should be careful not to get jumped.</t>
+  </si>
+  <si>
+    <t>You know, a little while ago, a paladin came here; said he was on a journey.</t>
+  </si>
+  <si>
+    <t>He was wearing a mask, but I'm sure that underneath, he was a good person.</t>
+  </si>
+  <si>
+    <t>He was kind, yet wrapped in a veil of sorrow.</t>
+  </si>
+  <si>
+    <t>I wonder if I'll ever see him again...</t>
+  </si>
+  <si>
+    <t>The pegasus knight trio must be lonely without Est.</t>
+  </si>
+  <si>
+    <t>And I was such a fan of their "Triangle Attack!" too...</t>
+  </si>
+  <si>
+    <t>Come home already, will ya?</t>
+  </si>
+  <si>
+    <t>I wonder what's going to happen to Macedon?</t>
+  </si>
+  <si>
+    <t>They say that Prince Michalis is dead, and Princess Maria is nowhere to be found...</t>
+  </si>
+  <si>
+    <t>On top of that, they say that Princess Minerva has been captured and that her life is in peril.</t>
+  </si>
+  <si>
+    <t>I just hope...</t>
+  </si>
+  <si>
+    <t>that this country doesn't end up like Grust...</t>
+  </si>
+  <si>
+    <t>Have you noticed that large drawbridge behind this village?</t>
+  </si>
+  <si>
+    <t>Normally it's separated by the river, but if you use this key here, you can cross the bridge.</t>
+  </si>
+  <si>
+    <t>Just, once you cross the drawbridge, the enemies on the other side will come and attack you at once.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you want to advance safely, you might be better off taking the long detour that goes right around the mountain. </t>
+  </si>
+  <si>
+    <t>Here, take the key. No matter which path you take, do take care of yourself, m'kay?</t>
+  </si>
+  <si>
+    <t>MS003_VIL3</t>
+  </si>
+  <si>
+    <t>Just a hidden Bridge Key in the original, no village</t>
+  </si>
+  <si>
+    <t>Removed in FE12, replaced by Saji recruitment; MS003_VIL2</t>
+  </si>
+  <si>
+    <t>MS003_H1</t>
+  </si>
+  <si>
+    <t>MS003_H2</t>
+  </si>
+  <si>
+    <t>MS003_H3</t>
+  </si>
+  <si>
+    <t>MS003_H4</t>
+  </si>
+  <si>
+    <t>MS003_TK1</t>
+  </si>
+  <si>
+    <t>Hey! Cut it out.</t>
+  </si>
+  <si>
+    <t>Why must you always insist on pointing your sword at us?</t>
+  </si>
+  <si>
+    <t>I pity Lena for having to put up your stupidity.</t>
+  </si>
+  <si>
+    <t>Matthis:</t>
+  </si>
+  <si>
+    <t>Oh, it's you, Julian.</t>
+  </si>
+  <si>
+    <t>Are you still trying to worm your way into Lena's good books?</t>
+  </si>
+  <si>
+    <t>No way, I won't hand my cute lil' sister to a thieving rat like you.</t>
+  </si>
+  <si>
+    <t>You can relax...</t>
+  </si>
+  <si>
+    <t>Lena and I would never work out.</t>
+  </si>
+  <si>
+    <t>But even if it's just a little, I wanted to help her in any way I could.</t>
+  </si>
+  <si>
+    <t>Ooh, you finally realized where you stand.</t>
+  </si>
+  <si>
+    <t>Attaboy, Julian!</t>
+  </si>
+  <si>
+    <t>Er, that's not the kind of thing I want to be hearing from you...</t>
+  </si>
+  <si>
+    <t>Well, whatever.</t>
+  </si>
+  <si>
+    <t>If you're worried about Lena, then come with me.</t>
+  </si>
+  <si>
+    <t>Oh, alright, thanks.</t>
+  </si>
+  <si>
+    <t>You see, they forced me to join the rebel army, but you know I hate fighting.</t>
+  </si>
+  <si>
+    <t>Alright, lil' brother. Let's join forces and look for our cute lil' Lena!</t>
+  </si>
+  <si>
+    <t>Lena...</t>
+  </si>
+  <si>
+    <t>What I would give to hear your voice just once before I die...</t>
+  </si>
+  <si>
+    <t>F-forgive... your foolish big brother...</t>
+  </si>
+  <si>
+    <t>MS003_BT_MATIS</t>
+  </si>
+  <si>
+    <t>MS003_DIE_MATIS</t>
+  </si>
+  <si>
+    <t>MS003_BT_RYUKE</t>
+  </si>
+  <si>
+    <t>MS003_DIE_RYUKE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-damn it... </t>
+  </si>
+  <si>
+    <t>Why is the Altean army here...?</t>
+  </si>
+  <si>
+    <t>You're all going down with me. Die!</t>
+  </si>
+  <si>
+    <t>The Altean knights...</t>
+  </si>
+  <si>
+    <t>As I expected...</t>
+  </si>
+  <si>
+    <t>MS003_ED1</t>
+  </si>
+  <si>
+    <t>Sire, the rebels have fled the castle, but I regret to inform you that Princess Minerva was nowhere to be found.</t>
+  </si>
+  <si>
+    <t>What could have happened?</t>
+  </si>
+  <si>
+    <t>She was supposed to be held inside the castle...</t>
+  </si>
+  <si>
+    <t>Oh-hoh, I knew this task was unworthy.</t>
+  </si>
+  <si>
+    <t>Excellent work, Prince Marth.</t>
+  </si>
+  <si>
+    <t>We'll take care of Macedon from here.</t>
+  </si>
+  <si>
+    <t>Now, let us discuss your next mission.</t>
+  </si>
+  <si>
+    <t>General Lang, what in the world do you want this time?</t>
+  </si>
+  <si>
+    <t>Well, you see...</t>
+  </si>
+  <si>
+    <t>My castle was attacked and the Grustian prince and princess were kidnapped.</t>
+  </si>
+  <si>
+    <t>The perpetrator fled to Macedon, it seems.</t>
+  </si>
+  <si>
+    <t>Prince Marth, you are to capture him and return the children to me!</t>
+  </si>
+  <si>
+    <t>General Lang, I will no longer follow your orders from here.</t>
+  </si>
+  <si>
+    <t>You're asking me to send those children to their doom!</t>
+  </si>
+  <si>
+    <t>You're in no position to defy me.</t>
+  </si>
+  <si>
+    <t>Now, off to work you go, my prince.</t>
+  </si>
+  <si>
+    <t>You...! Your rudeness towards my liege has gone too far...!</t>
+  </si>
+  <si>
+    <t>Shut up! Prince Marth is not your minion!</t>
+  </si>
+  <si>
+    <t>What did you say?! Know your place, Altean soldier!</t>
+  </si>
+  <si>
+    <t>Marth, it seems that your countrymen are devoid of manners!</t>
+  </si>
+  <si>
+    <t>...I apologize on his behalf.</t>
+  </si>
+  <si>
+    <t>But it is as Chris says:</t>
+  </si>
+  <si>
+    <t>Oh-hoh, I knew this task was unworthy of Prince Marth.</t>
+  </si>
+  <si>
+    <t>Excellent work.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Now, for your next mission.</t>
+  </si>
+  <si>
+    <t>That's asking me to send those children to their doom!</t>
+  </si>
+  <si>
+    <t>You'd do wise to continue slaving for my benefit, Prince Marth.</t>
+  </si>
+  <si>
+    <t>Sire...!</t>
+  </si>
+  <si>
+    <t>What!</t>
+  </si>
+  <si>
+    <t>Do you mean to defy my orders?!</t>
+  </si>
+  <si>
+    <t>I see... I see. As I suspected, it was YOUR doing.</t>
+  </si>
+  <si>
+    <t>The person who kidnapped Grust's prince and princess was the mercenary, Ogma.</t>
+  </si>
+  <si>
+    <t>On your orders, no less!</t>
+  </si>
+  <si>
+    <t>I didn't know of this.</t>
+  </si>
+  <si>
+    <t>But if I had the choice, I would have done exactly as you suggested.</t>
+  </si>
+  <si>
+    <t>Back at Grust, even though they were meant to be our enemies, I should have helped those children.</t>
+  </si>
+  <si>
+    <t>You!</t>
+  </si>
+  <si>
+    <t>You clearly speak words of treason!</t>
+  </si>
+  <si>
+    <t>Perhaps I should report this to the Emperor!</t>
+  </si>
+  <si>
+    <t>Do as you will.</t>
+  </si>
+  <si>
+    <t>But you're not the only person who intends to visit the palace.</t>
+  </si>
+  <si>
+    <t>I will speak to Emperor Hardin and Princess Nyna and inform them of your crimes.</t>
+  </si>
+  <si>
+    <t>Forgive me, Jagen. But I cannot stand for this any longer.</t>
+  </si>
+  <si>
+    <t>You have endured well until now.</t>
+  </si>
+  <si>
+    <t>Lang, my liege might forgive your frequent rudeness to him, but I will not.</t>
+  </si>
+  <si>
+    <t>Even though I, Jagen, am old and senile, I will not lose to the likes of you.</t>
+  </si>
+  <si>
+    <t>Wh... what did you say?!</t>
+  </si>
+  <si>
+    <t>Damn you... I'll remember this!!</t>
+  </si>
+  <si>
+    <t>Once the Emperor gets wind of this, I'll crush your puny little Altea!</t>
+  </si>
+  <si>
+    <t>Jagen...</t>
+  </si>
+  <si>
+    <t>you're a bag of surprises.</t>
+  </si>
+  <si>
+    <t>To think you'd stand up against Lang like that.</t>
+  </si>
+  <si>
+    <t>Sire, are you underestimating me in my old age?</t>
+  </si>
+  <si>
+    <t>Bwahaha... I'm not about to let youngsters like Chris hog all the glory just yet.</t>
+  </si>
+  <si>
+    <t>Still, I'll admit it was somewhat foolish to contest with Lang, even if he did push my lord at every turn.</t>
+  </si>
+  <si>
+    <t>Sire, Sir Jagen. What is our next plan of action?</t>
+  </si>
+  <si>
+    <t>According to Lang, Ogma is on his way to Macedon.</t>
+  </si>
+  <si>
+    <t>He probably intends to visit the village where Lord Wendell resides.</t>
+  </si>
+  <si>
+    <t>Lord Wendell?</t>
+  </si>
+  <si>
+    <t>Lord Wendell is a pontifex of Khadein; he fought as our ally in the last war.</t>
+  </si>
+  <si>
+    <t>I hear he's living in Macedon now.</t>
+  </si>
+  <si>
+    <t>It also happens that the children that Ogma saved were raised by Lord Wendell.</t>
+  </si>
+  <si>
+    <t>So I'm sure it would be the perfect time to pay him a visit.</t>
+  </si>
+  <si>
+    <t>Yes, understood.</t>
+  </si>
+  <si>
+    <t>But, I worry about Lang...</t>
+  </si>
+  <si>
+    <t>I pray that nothing bad shall happen...</t>
   </si>
 </sst>
 </file>
@@ -1892,7 +3880,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1903,6 +3891,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2219,8 +4210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D434"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A441" sqref="A441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5158,4 +7149,3880 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D224"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="71.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>681</v>
+      </c>
+      <c r="B6" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>682</v>
+      </c>
+      <c r="B7" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>583</v>
+      </c>
+      <c r="B8" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>584</v>
+      </c>
+      <c r="B9" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>585</v>
+      </c>
+      <c r="B10" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>586</v>
+      </c>
+      <c r="B11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>587</v>
+      </c>
+      <c r="B12" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>588</v>
+      </c>
+      <c r="B13" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="6" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="6" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" s="6" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" s="6" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>590</v>
+      </c>
+      <c r="B76" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>591</v>
+      </c>
+      <c r="B77" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>592</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>593</v>
+      </c>
+      <c r="B80" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>594</v>
+      </c>
+      <c r="B82" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>595</v>
+      </c>
+      <c r="B83" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>596</v>
+      </c>
+      <c r="B85" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>597</v>
+      </c>
+      <c r="B86" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>598</v>
+      </c>
+      <c r="B88" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>599</v>
+      </c>
+      <c r="B89" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>600</v>
+      </c>
+      <c r="B90" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>601</v>
+      </c>
+      <c r="B92" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>602</v>
+      </c>
+      <c r="B93" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="6" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B96" s="6" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>603</v>
+      </c>
+      <c r="B98" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>604</v>
+      </c>
+      <c r="B99" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>605</v>
+      </c>
+      <c r="B100" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B101" s="6" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>606</v>
+      </c>
+      <c r="B103" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>607</v>
+      </c>
+      <c r="B104" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>608</v>
+      </c>
+      <c r="B105" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B106" s="6" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>609</v>
+      </c>
+      <c r="B108" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>610</v>
+      </c>
+      <c r="B109" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B110" s="6" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>611</v>
+      </c>
+      <c r="B112" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>612</v>
+      </c>
+      <c r="B113" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>613</v>
+      </c>
+      <c r="B114" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B115" s="6" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>615</v>
+      </c>
+      <c r="B117" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>617</v>
+      </c>
+      <c r="B119" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>619</v>
+      </c>
+      <c r="B124" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>620</v>
+      </c>
+      <c r="B125" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>622</v>
+      </c>
+      <c r="B127" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>623</v>
+      </c>
+      <c r="B128" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>624</v>
+      </c>
+      <c r="B129" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>625</v>
+      </c>
+      <c r="B131" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>626</v>
+      </c>
+      <c r="B132" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>627</v>
+      </c>
+      <c r="B133" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>628</v>
+      </c>
+      <c r="B134" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>629</v>
+      </c>
+      <c r="B135" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>630</v>
+      </c>
+      <c r="B136" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>631</v>
+      </c>
+      <c r="B138" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>632</v>
+      </c>
+      <c r="B139" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>633</v>
+      </c>
+      <c r="B140" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>764</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D143" s="6" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B144" s="5" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B145" s="2" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B147" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B148" s="2" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B150" s="5" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B151" s="2" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>635</v>
+      </c>
+      <c r="B156" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>636</v>
+      </c>
+      <c r="B157" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>638</v>
+      </c>
+      <c r="B162" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>643</v>
+      </c>
+      <c r="B169" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="B171" s="6" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>645</v>
+      </c>
+      <c r="B174" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="B176" s="6" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>646</v>
+      </c>
+      <c r="B179" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>647</v>
+      </c>
+      <c r="B181" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>648</v>
+      </c>
+      <c r="B182" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B183" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B184" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B185" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B186" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B187" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>650</v>
+      </c>
+      <c r="B189" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>651</v>
+      </c>
+      <c r="B190" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>652</v>
+      </c>
+      <c r="B191" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>653</v>
+      </c>
+      <c r="B193" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>654</v>
+      </c>
+      <c r="B194" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>656</v>
+      </c>
+      <c r="B196" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>657</v>
+      </c>
+      <c r="B197" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>658</v>
+      </c>
+      <c r="B199" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D200" s="6" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>659</v>
+      </c>
+      <c r="B201" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>660</v>
+      </c>
+      <c r="B202" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>661</v>
+      </c>
+      <c r="B203" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B204" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B205" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B206" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B207" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B208" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>662</v>
+      </c>
+      <c r="B209" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>663</v>
+      </c>
+      <c r="B210" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>664</v>
+      </c>
+      <c r="B211" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>665</v>
+      </c>
+      <c r="B213" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>666</v>
+      </c>
+      <c r="B214" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>667</v>
+      </c>
+      <c r="B215" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>668</v>
+      </c>
+      <c r="B216" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>669</v>
+      </c>
+      <c r="B218" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>336</v>
+      </c>
+      <c r="B219" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>671</v>
+      </c>
+      <c r="B221" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>672</v>
+      </c>
+      <c r="B222" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>673</v>
+      </c>
+      <c r="B224" t="s">
+        <v>810</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C363"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A340" workbookViewId="0">
+      <selection activeCell="B340" sqref="B340"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="71.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>811</v>
+      </c>
+      <c r="B1" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>814</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>815</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>816</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>817</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>818</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>819</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>820</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>821</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>822</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>823</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="5" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="5" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="2" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B31" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B32" s="2" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="2" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" s="2" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" s="5" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" s="2" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" s="2" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45" s="2" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B47" s="5" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48" s="2" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B50" s="2" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B52" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B53" s="2" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B55" s="5" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B56" s="2" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>825</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>826</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>827</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>828</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>830</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>831</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>832</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>833</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>834</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>839</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>840</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="6" t="s">
+        <v>841</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>843</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>844</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>846</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>847</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>848</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>849</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>850</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>851</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>852</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>853</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>854</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>855</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>856</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>858</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>859</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>860</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B107" s="6" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>861</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>862</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>863</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>864</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>866</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>867</v>
+      </c>
+      <c r="B115" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="6" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>868</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>870</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B123" s="2" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B124" s="2"/>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="6" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B126" s="6" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>871</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>872</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>873</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B131" s="6" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>875</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>876</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>877</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>878</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B137" s="6" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>879</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>880</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>881</v>
+      </c>
+      <c r="B141" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>882</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B143" s="6" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>883</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>884</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>885</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>176</v>
+      </c>
+      <c r="B148" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>886</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" s="6" t="s">
+        <v>887</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>888</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>889</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>890</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>891</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>892</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>893</v>
+      </c>
+      <c r="B162" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>894</v>
+      </c>
+      <c r="B163" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>895</v>
+      </c>
+      <c r="B164" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>897</v>
+      </c>
+      <c r="B167" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>898</v>
+      </c>
+      <c r="B169" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>899</v>
+      </c>
+      <c r="B170" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>900</v>
+      </c>
+      <c r="B171" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>901</v>
+      </c>
+      <c r="B173" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>902</v>
+      </c>
+      <c r="B174" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>903</v>
+      </c>
+      <c r="B175" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>904</v>
+      </c>
+      <c r="B176" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>905</v>
+      </c>
+      <c r="B177" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>906</v>
+      </c>
+      <c r="B178" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>907</v>
+      </c>
+      <c r="B179" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>402</v>
+      </c>
+      <c r="B181" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>908</v>
+      </c>
+      <c r="B182" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" s="6" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B184" s="6" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B186" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B187" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B188" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B189" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B190" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B191" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" s="6" t="s">
+        <v>909</v>
+      </c>
+      <c r="B193" s="6" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>910</v>
+      </c>
+      <c r="B196" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>911</v>
+      </c>
+      <c r="B197" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>912</v>
+      </c>
+      <c r="B198" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>914</v>
+      </c>
+      <c r="B200" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>915</v>
+      </c>
+      <c r="B201" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>916</v>
+      </c>
+      <c r="B202" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>917</v>
+      </c>
+      <c r="B204" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>918</v>
+      </c>
+      <c r="B205" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>919</v>
+      </c>
+      <c r="B206" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>920</v>
+      </c>
+      <c r="B208" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>921</v>
+      </c>
+      <c r="B209" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>922</v>
+      </c>
+      <c r="B211" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>923</v>
+      </c>
+      <c r="B212" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>924</v>
+      </c>
+      <c r="B213" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>925</v>
+      </c>
+      <c r="B215" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>926</v>
+      </c>
+      <c r="B216" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>927</v>
+      </c>
+      <c r="B217" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" s="6" t="s">
+        <v>928</v>
+      </c>
+      <c r="B219" s="6" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>929</v>
+      </c>
+      <c r="B222" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>930</v>
+      </c>
+      <c r="B223" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>931</v>
+      </c>
+      <c r="B224" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" s="6" t="s">
+        <v>932</v>
+      </c>
+      <c r="B226" s="6" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>929</v>
+      </c>
+      <c r="B229" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>933</v>
+      </c>
+      <c r="B230" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" s="6" t="s">
+        <v>934</v>
+      </c>
+      <c r="B232" s="6" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>935</v>
+      </c>
+      <c r="B235" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>936</v>
+      </c>
+      <c r="B236" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>937</v>
+      </c>
+      <c r="B237" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" s="6" t="s">
+        <v>938</v>
+      </c>
+      <c r="B239" s="6" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>939</v>
+      </c>
+      <c r="B242" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>940</v>
+      </c>
+      <c r="B243" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="B245" s="6" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>944</v>
+      </c>
+      <c r="B252" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>945</v>
+      </c>
+      <c r="B254" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>946</v>
+      </c>
+      <c r="B255" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A260" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>949</v>
+      </c>
+      <c r="B261" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C261" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>950</v>
+      </c>
+      <c r="B262" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C262" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>951</v>
+      </c>
+      <c r="B263" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C263" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>952</v>
+      </c>
+      <c r="B264" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C264" s="7" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A265" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>953</v>
+      </c>
+      <c r="B266" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A267" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>954</v>
+      </c>
+      <c r="B268" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>955</v>
+      </c>
+      <c r="B269" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>956</v>
+      </c>
+      <c r="B270" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>957</v>
+      </c>
+      <c r="B271" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A272" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B276" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C276" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B277" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B278" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B279" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C279" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B280" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B281" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B282" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B283" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B284" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B285" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B286" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B287" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B288" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>961</v>
+      </c>
+      <c r="B289" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B291" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B292" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>963</v>
+      </c>
+      <c r="B294" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>964</v>
+      </c>
+      <c r="B295" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>965</v>
+      </c>
+      <c r="B296" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>967</v>
+      </c>
+      <c r="B300" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>969</v>
+      </c>
+      <c r="B302" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>970</v>
+      </c>
+      <c r="B304" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>971</v>
+      </c>
+      <c r="B305" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>972</v>
+      </c>
+      <c r="B306" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>974</v>
+      </c>
+      <c r="B309" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>975</v>
+      </c>
+      <c r="B310" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>976</v>
+      </c>
+      <c r="B311" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>977</v>
+      </c>
+      <c r="B313" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>978</v>
+      </c>
+      <c r="B314" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>979</v>
+      </c>
+      <c r="B315" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>980</v>
+      </c>
+      <c r="B316" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>982</v>
+      </c>
+      <c r="B319" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>983</v>
+      </c>
+      <c r="B320" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>986</v>
+      </c>
+      <c r="B323" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>987</v>
+      </c>
+      <c r="B324" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>988</v>
+      </c>
+      <c r="B325" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>989</v>
+      </c>
+      <c r="B327" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>990</v>
+      </c>
+      <c r="B328" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>991</v>
+      </c>
+      <c r="B329" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>995</v>
+      </c>
+      <c r="B336" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>996</v>
+      </c>
+      <c r="B337" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>997</v>
+      </c>
+      <c r="B338" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>998</v>
+      </c>
+      <c r="B340" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>999</v>
+      </c>
+      <c r="B341" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B342" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B344" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B345" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A346" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B349" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B350" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B352" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B353" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B354" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B355" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B356" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B357" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B358" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A359" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B360" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B361" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B362" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B363" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/FE3 vs FE12.xlsx
+++ b/FE3 vs FE12.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8508" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8508" firstSheet="7" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Terminology" sheetId="48" r:id="rId1"/>
@@ -179,7 +179,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8706" uniqueCount="6132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8727" uniqueCount="6168">
   <si>
     <t>One year has passed since the War of Darkness ended.</t>
   </si>
@@ -18651,12 +18651,120 @@
   <si>
     <t>"He cannot be allowed to live. I will definitely defeat him!"</t>
   </si>
+  <si>
+    <t xml:space="preserve">Oguma's silence in spite of the torture isn’t mentioned </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lang's reasoning for capturing Wendel is different. </t>
+  </si>
+  <si>
+    <t>Originally he took him to help put down the rebellion in Grunia.</t>
+  </si>
+  <si>
+    <t>This became an accusation of working with unspecified rebels.</t>
+  </si>
+  <si>
+    <t>Presumably the Macedonian ones, considering the geography.</t>
+  </si>
+  <si>
+    <t>Wendel doesn't directly ask Marth to find the star shards</t>
+  </si>
+  <si>
+    <t>No more "can you wait until I've my country back?"</t>
+  </si>
+  <si>
+    <t>Marth doesn't care about Raman's fate</t>
+  </si>
+  <si>
+    <t>Tales plural versus legend singular</t>
+  </si>
+  <si>
+    <t>Always monsters vs suddenly monsters</t>
+  </si>
+  <si>
+    <t>No number anymore</t>
+  </si>
+  <si>
+    <t>Shouldn't Marth already know how it works?</t>
+  </si>
+  <si>
+    <t>Misheil's atheism is brushed over</t>
+  </si>
+  <si>
+    <t>No more plans to destroy Macedonian opposition</t>
+  </si>
+  <si>
+    <t>Line stolen</t>
+  </si>
+  <si>
+    <t>Marth doesn't mention people back in Macedonia</t>
+  </si>
+  <si>
+    <t>Ellerean's speculation on Wendel's reasoning is gone</t>
+  </si>
+  <si>
+    <t>And Marich's apology is gone too</t>
+  </si>
+  <si>
+    <t>Ellerean tells the truth in FE3, he buys into Hardin's propaganda in FE12</t>
+  </si>
+  <si>
+    <t>Shielding Hardin becomes soul trapped within</t>
+  </si>
+  <si>
+    <t>All the benefits of the Dark Orb disappear</t>
+  </si>
+  <si>
+    <t>The comparisons to Anri are reduced</t>
+  </si>
+  <si>
+    <t>FE3 is framed like it's quoting Anri.</t>
+  </si>
+  <si>
+    <t>FE12 is more of a description.</t>
+  </si>
+  <si>
+    <t>And the big plot dump is relegated to base convo.</t>
+  </si>
+  <si>
+    <t>All hail the Kris…</t>
+  </si>
+  <si>
+    <t>Chainy mocks what he just said in FE3.</t>
+  </si>
+  <si>
+    <t>Reduced down to a "Gotcha" in FE12.\</t>
+  </si>
+  <si>
+    <t>Apology becomes sarcasm</t>
+  </si>
+  <si>
+    <t>Demon dragons aren't mentioned</t>
+  </si>
+  <si>
+    <t>Demon and Flying Dragons removed</t>
+  </si>
+  <si>
+    <t>Nagi makes a mockery of the original script here</t>
+  </si>
+  <si>
+    <t>Indirect complement becomes mild insult</t>
+  </si>
+  <si>
+    <t>"better off not knowing" to "long story"</t>
+  </si>
+  <si>
+    <t>seal weakens becomes seal broken</t>
+  </si>
+  <si>
+    <t>Storytime with Jeigan is once again relegated to base convo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -18737,6 +18845,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -18783,7 +18898,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -18821,6 +18936,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -19816,8 +19932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D235"/>
   <sheetViews>
-    <sheetView topLeftCell="A216" workbookViewId="0">
-      <selection activeCell="B234" sqref="B234"/>
+    <sheetView topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="B241" sqref="B241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20212,7 +20328,7 @@
         <v>4334</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>864</v>
       </c>
@@ -20220,7 +20336,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>2042</v>
       </c>
@@ -20228,7 +20344,7 @@
         <v>4335</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>2043</v>
       </c>
@@ -20236,7 +20352,7 @@
         <v>4336</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>2044</v>
       </c>
@@ -20244,7 +20360,7 @@
         <v>4337</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>841</v>
       </c>
@@ -20252,7 +20368,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>2045</v>
       </c>
@@ -20260,7 +20376,7 @@
         <v>4338</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>2046</v>
       </c>
@@ -20268,17 +20384,20 @@
         <v>4339</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>2047</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D88" t="s">
+        <v>6145</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>2048</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>2049</v>
       </c>
@@ -20286,7 +20405,7 @@
         <v>4340</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>864</v>
       </c>
@@ -20294,7 +20413,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>2050</v>
       </c>
@@ -20302,7 +20421,7 @@
         <v>4341</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>2051</v>
       </c>
@@ -20310,7 +20429,7 @@
         <v>4342</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>2052</v>
       </c>
@@ -20318,7 +20437,7 @@
         <v>4343</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>2053</v>
       </c>
@@ -20326,7 +20445,7 @@
         <v>4344</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>2054</v>
       </c>
@@ -20334,7 +20453,7 @@
         <v>4345</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>2055</v>
       </c>
@@ -20342,7 +20461,7 @@
         <v>4346</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>841</v>
       </c>
@@ -20350,7 +20469,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>2056</v>
       </c>
@@ -20358,7 +20477,7 @@
         <v>4347</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>2057</v>
       </c>
@@ -20366,7 +20485,7 @@
         <v>4348</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>2058</v>
       </c>
@@ -20374,7 +20493,7 @@
         <v>4349</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>2059</v>
       </c>
@@ -20382,17 +20501,20 @@
         <v>4350</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>2060</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>2061</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D104" t="s">
+        <v>6144</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>2062</v>
       </c>
@@ -20400,7 +20522,7 @@
         <v>4351</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>2063</v>
       </c>
@@ -20408,7 +20530,7 @@
         <v>4352</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>2064</v>
       </c>
@@ -20416,7 +20538,7 @@
         <v>4353</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>2065</v>
       </c>
@@ -20424,7 +20546,7 @@
         <v>4354</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>864</v>
       </c>
@@ -20432,7 +20554,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>2066</v>
       </c>
@@ -20440,7 +20562,7 @@
         <v>4355</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>53</v>
       </c>
@@ -20462,6 +20584,9 @@
       <c r="B115" s="1" t="s">
         <v>684</v>
       </c>
+      <c r="D115" t="s">
+        <v>6146</v>
+      </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
@@ -20858,7 +20983,7 @@
         <v>4388</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>2098</v>
       </c>
@@ -20866,7 +20991,7 @@
         <v>4389</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>2099</v>
       </c>
@@ -20874,7 +20999,7 @@
         <v>4390</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>864</v>
       </c>
@@ -20882,7 +21007,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>2100</v>
       </c>
@@ -20890,7 +21015,7 @@
         <v>4391</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>2101</v>
       </c>
@@ -20898,7 +21023,7 @@
         <v>4392</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>2102</v>
       </c>
@@ -20906,7 +21031,7 @@
         <v>4393</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>53</v>
       </c>
@@ -20914,7 +21039,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>2103</v>
       </c>
@@ -20922,7 +21047,7 @@
         <v>4394</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>864</v>
       </c>
@@ -20930,7 +21055,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>2104</v>
       </c>
@@ -20938,12 +21063,12 @@
         <v>4395</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>1301</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>53</v>
       </c>
@@ -20951,7 +21076,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>981</v>
       </c>
@@ -20959,7 +21084,7 @@
         <v>4396</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>2105</v>
       </c>
@@ -20967,7 +21092,7 @@
         <v>4397</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>2106</v>
       </c>
@@ -20975,9 +21100,12 @@
         <v>4398</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>2107</v>
+      </c>
+      <c r="D192" t="s">
+        <v>6147</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
@@ -21208,8 +21336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D326"/>
   <sheetViews>
-    <sheetView topLeftCell="A255" workbookViewId="0">
-      <selection activeCell="A258" sqref="A258"/>
+    <sheetView topLeftCell="A240" workbookViewId="0">
+      <selection activeCell="A256" sqref="A256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21521,7 +21649,7 @@
         <v>4444</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>2136</v>
       </c>
@@ -21529,22 +21657,25 @@
         <v>4445</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>2137</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D66" t="s">
+        <v>6148</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>2138</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>2139</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>2140</v>
       </c>
@@ -21552,7 +21683,7 @@
         <v>4446</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>2130</v>
       </c>
@@ -21560,17 +21691,20 @@
         <v>4439</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>2141</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>2142</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D72" t="s">
+        <v>6149</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>2143</v>
       </c>
@@ -21578,7 +21712,7 @@
         <v>4447</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>4435</v>
       </c>
@@ -21586,7 +21720,7 @@
         <v>4448</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>2144</v>
       </c>
@@ -21594,12 +21728,12 @@
         <v>4449</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>2145</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>2146</v>
       </c>
@@ -21607,7 +21741,7 @@
         <v>4450</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>2147</v>
       </c>
@@ -21615,7 +21749,7 @@
         <v>4451</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>2127</v>
       </c>
@@ -21623,7 +21757,7 @@
         <v>4436</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>2148</v>
       </c>
@@ -21631,20 +21765,23 @@
         <v>4452</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>2149</v>
       </c>
       <c r="B81" t="s">
         <v>4453</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D81" t="s">
+        <v>6150</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>2150</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>2151</v>
       </c>
@@ -21652,7 +21789,7 @@
         <v>4454</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>2152</v>
       </c>
@@ -21660,7 +21797,7 @@
         <v>4455</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>2153</v>
       </c>
@@ -21668,7 +21805,7 @@
         <v>4456</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>2154</v>
       </c>
@@ -21676,7 +21813,7 @@
         <v>4457</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>2130</v>
       </c>
@@ -21684,7 +21821,7 @@
         <v>4439</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>2155</v>
       </c>
@@ -21692,7 +21829,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>2156</v>
       </c>
@@ -21700,7 +21837,7 @@
         <v>4458</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>2127</v>
       </c>
@@ -21708,7 +21845,7 @@
         <v>4436</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>2157</v>
       </c>
@@ -21716,7 +21853,7 @@
         <v>4459</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>2158</v>
       </c>
@@ -21724,7 +21861,7 @@
         <v>4460</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>2159</v>
       </c>
@@ -21732,7 +21869,7 @@
         <v>4461</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>2160</v>
       </c>
@@ -21740,7 +21877,7 @@
         <v>4462</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>2161</v>
       </c>
@@ -22367,6 +22504,9 @@
       <c r="B198" t="s">
         <v>4512</v>
       </c>
+      <c r="D198" t="s">
+        <v>6151</v>
+      </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
@@ -22438,6 +22578,9 @@
       <c r="B208" t="s">
         <v>4517</v>
       </c>
+      <c r="D208" t="s">
+        <v>6152</v>
+      </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
@@ -22674,7 +22817,7 @@
         <v>4534</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>2236</v>
       </c>
@@ -22682,22 +22825,25 @@
         <v>4535</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>2237</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D242" t="s">
+        <v>6153</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>2238</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>2239</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>2240</v>
       </c>
@@ -22705,7 +22851,7 @@
         <v>4536</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>2241</v>
       </c>
@@ -22713,12 +22859,12 @@
         <v>4537</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>2242</v>
       </c>
@@ -22726,7 +22872,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>2243</v>
       </c>
@@ -22734,7 +22880,7 @@
         <v>4538</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>2244</v>
       </c>
@@ -22742,7 +22888,7 @@
         <v>4539</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>2195</v>
       </c>
@@ -22750,27 +22896,27 @@
         <v>4540</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>2262</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>2245</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>2246</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>2247</v>
       </c>
@@ -23007,8 +23153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D235"/>
   <sheetViews>
-    <sheetView topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="B229" sqref="B229"/>
+    <sheetView topLeftCell="A189" workbookViewId="0">
+      <selection activeCell="B189" sqref="B189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23162,32 +23308,32 @@
         <v>4582</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B34" s="5" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B35" s="2" t="s">
         <v>2491</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B37" s="5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B38" s="2" t="s">
         <v>4583</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>53</v>
       </c>
@@ -23195,7 +23341,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>2392</v>
       </c>
@@ -23203,7 +23349,7 @@
         <v>4586</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>56</v>
       </c>
@@ -23211,12 +23357,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>2393</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>2394</v>
       </c>
@@ -23224,23 +23370,29 @@
         <v>4587</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>2395</v>
       </c>
       <c r="B46" t="s">
         <v>4588</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D46" t="s">
+        <v>6154</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>2396</v>
       </c>
       <c r="B47" t="s">
         <v>4589</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D47" t="s">
+        <v>6155</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>2397</v>
       </c>
@@ -23248,7 +23400,7 @@
         <v>4590</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>2398</v>
       </c>
@@ -23256,7 +23408,7 @@
         <v>4591</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>2167</v>
       </c>
@@ -23264,7 +23416,7 @@
         <v>4592</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>53</v>
       </c>
@@ -23272,7 +23424,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>1338</v>
       </c>
@@ -23280,7 +23432,7 @@
         <v>4593</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>2399</v>
       </c>
@@ -23288,7 +23440,7 @@
         <v>4594</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>56</v>
       </c>
@@ -23296,7 +23448,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>1683</v>
       </c>
@@ -23304,7 +23456,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>2400</v>
       </c>
@@ -23312,7 +23464,7 @@
         <v>4595</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>2401</v>
       </c>
@@ -23320,37 +23472,40 @@
         <v>4596</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>2402</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D58" t="s">
+        <v>6156</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>2403</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>2404</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>2405</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>2406</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>2407</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>2408</v>
       </c>
@@ -23435,52 +23590,55 @@
         <v>53</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>2424</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>2425</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>2426</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>2427</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B86" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
         <v>4597</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
         <v>4598</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
         <v>4599</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D89" t="s">
+        <v>6157</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B90" s="1" t="s">
         <v>684</v>
       </c>
@@ -23488,7 +23646,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
         <v>4600</v>
       </c>
@@ -23496,7 +23654,7 @@
         <v>4605</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
         <v>4601</v>
       </c>
@@ -23504,7 +23662,7 @@
         <v>4601</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
         <v>4602</v>
       </c>
@@ -23512,7 +23670,7 @@
         <v>4602</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
         <v>4603</v>
       </c>
@@ -23520,7 +23678,7 @@
         <v>4603</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
         <v>4604</v>
       </c>
@@ -23528,7 +23686,7 @@
         <v>4606</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B96" s="1" t="s">
         <v>130</v>
       </c>
@@ -23856,7 +24014,7 @@
         <v>4633</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>1726</v>
       </c>
@@ -23864,7 +24022,7 @@
         <v>4647</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>2436</v>
       </c>
@@ -23872,7 +24030,7 @@
         <v>4648</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>2437</v>
       </c>
@@ -23880,7 +24038,7 @@
         <v>4649</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>53</v>
       </c>
@@ -23888,7 +24046,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>1869</v>
       </c>
@@ -23896,7 +24054,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>2438</v>
       </c>
@@ -23904,7 +24062,7 @@
         <v>4650</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>2439</v>
       </c>
@@ -23912,7 +24070,7 @@
         <v>4651</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>2428</v>
       </c>
@@ -23920,7 +24078,7 @@
         <v>4633</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>2196</v>
       </c>
@@ -23928,7 +24086,7 @@
         <v>4652</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>2440</v>
       </c>
@@ -23936,7 +24094,7 @@
         <v>4653</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>53</v>
       </c>
@@ -23944,7 +24102,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>2441</v>
       </c>
@@ -23952,7 +24110,7 @@
         <v>4654</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>2442</v>
       </c>
@@ -23960,20 +24118,26 @@
         <v>4655</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>2443</v>
       </c>
       <c r="B174" t="s">
         <v>4656</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D174" t="s">
+        <v>6158</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>2444</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D175" t="s">
+        <v>6159</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>53</v>
       </c>
@@ -23981,7 +24145,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>2445</v>
       </c>
@@ -23989,17 +24153,17 @@
         <v>4657</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B178" s="1" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B179" t="s">
         <v>4658</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B180" t="s">
         <v>4659</v>
       </c>
@@ -24007,7 +24171,7 @@
         <v>4660</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>2442</v>
       </c>
@@ -24015,45 +24179,48 @@
         <v>4655</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>2446</v>
       </c>
       <c r="B182" t="s">
         <v>4665</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D182" t="s">
+        <v>6160</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>2447</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>2448</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>2449</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>2450</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>2451</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B188" t="s">
         <v>4661</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B189" t="s">
         <v>4662</v>
       </c>
@@ -24061,17 +24228,17 @@
         <v>4666</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B190" t="s">
         <v>4663</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B191" t="s">
         <v>4664</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>2452</v>
       </c>
@@ -24273,8 +24440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D189"/>
   <sheetViews>
-    <sheetView topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="B150" sqref="B150"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A124" sqref="A124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24616,7 +24783,7 @@
       <c r="A47" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
         <v>130</v>
       </c>
     </row>
@@ -24632,7 +24799,7 @@
       <c r="A49" s="1" t="s">
         <v>2442</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="1" t="s">
         <v>4655</v>
       </c>
     </row>
@@ -24737,7 +24904,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>2500</v>
       </c>
@@ -24745,7 +24912,7 @@
         <v>4727</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>2501</v>
       </c>
@@ -24753,12 +24920,12 @@
         <v>4728</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>2502</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>2442</v>
       </c>
@@ -24766,17 +24933,17 @@
         <v>4655</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>2503</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>2504</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>2505</v>
       </c>
@@ -24784,7 +24951,7 @@
         <v>4729</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>53</v>
       </c>
@@ -24792,7 +24959,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>2506</v>
       </c>
@@ -24800,7 +24967,7 @@
         <v>4730</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>2442</v>
       </c>
@@ -24808,15 +24975,18 @@
         <v>4655</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>2507</v>
       </c>
       <c r="B75" t="s">
         <v>4731</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D75" t="s">
+        <v>6161</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>2508</v>
       </c>
@@ -24824,22 +24994,22 @@
         <v>4732</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>2509</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>2510</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>2442</v>
       </c>
@@ -24870,6 +25040,9 @@
       </c>
       <c r="B85" t="s">
         <v>4734</v>
+      </c>
+      <c r="D85" t="s">
+        <v>6162</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -25360,7 +25533,7 @@
   <dimension ref="A1:D166"/>
   <sheetViews>
     <sheetView topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="B129" sqref="B129"/>
+      <selection activeCell="A131" sqref="A131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25659,7 +25832,7 @@
         <v>4813</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>2558</v>
       </c>
@@ -25667,7 +25840,7 @@
         <v>4814</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>2559</v>
       </c>
@@ -25675,7 +25848,7 @@
         <v>4815</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>2442</v>
       </c>
@@ -25683,7 +25856,7 @@
         <v>4655</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>174</v>
       </c>
@@ -25691,17 +25864,20 @@
         <v>4816</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>2560</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>2561</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D70" t="s">
+        <v>6163</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>2562</v>
       </c>
@@ -25709,12 +25885,12 @@
         <v>4817</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>2563</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>2564</v>
       </c>
@@ -25722,7 +25898,7 @@
         <v>4818</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>2565</v>
       </c>
@@ -25730,7 +25906,7 @@
         <v>4819</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>2566</v>
       </c>
@@ -25738,7 +25914,7 @@
         <v>4820</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>2567</v>
       </c>
@@ -25746,7 +25922,7 @@
         <v>4821</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>2568</v>
       </c>
@@ -25754,7 +25930,7 @@
         <v>4822</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>2569</v>
       </c>
@@ -25762,7 +25938,7 @@
         <v>4823</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>2570</v>
       </c>
@@ -25770,7 +25946,7 @@
         <v>4824</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>2571</v>
       </c>
@@ -25778,7 +25954,7 @@
         <v>4825</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>2572</v>
       </c>
@@ -25786,7 +25962,7 @@
         <v>4826</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>2573</v>
       </c>
@@ -25794,7 +25970,7 @@
         <v>4827</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>2574</v>
       </c>
@@ -25802,7 +25978,7 @@
         <v>4828</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>2575</v>
       </c>
@@ -25810,7 +25986,7 @@
         <v>4829</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>53</v>
       </c>
@@ -25818,7 +25994,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>2576</v>
       </c>
@@ -25826,7 +26002,7 @@
         <v>4830</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>2577</v>
       </c>
@@ -25834,7 +26010,7 @@
         <v>4831</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>2442</v>
       </c>
@@ -25842,7 +26018,7 @@
         <v>4655</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>2578</v>
       </c>
@@ -25850,15 +26026,18 @@
         <v>4832</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>2579</v>
       </c>
       <c r="B90" t="s">
         <v>4833</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D90" t="s">
+        <v>6164</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>53</v>
       </c>
@@ -25866,7 +26045,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>2580</v>
       </c>
@@ -25874,7 +26053,7 @@
         <v>4834</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>2581</v>
       </c>
@@ -25882,7 +26061,7 @@
         <v>4835</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>2442</v>
       </c>
@@ -25890,7 +26069,7 @@
         <v>4655</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>2582</v>
       </c>
@@ -25898,7 +26077,7 @@
         <v>4836</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>2583</v>
       </c>
@@ -25906,7 +26085,7 @@
         <v>4837</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>2584</v>
       </c>
@@ -25914,7 +26093,7 @@
         <v>4838</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>2585</v>
       </c>
@@ -25922,7 +26101,7 @@
         <v>4839</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>2586</v>
       </c>
@@ -25930,12 +26109,12 @@
         <v>4840</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>2587</v>
       </c>
@@ -25943,7 +26122,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>2588</v>
       </c>
@@ -25951,7 +26130,7 @@
         <v>4841</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>2589</v>
       </c>
@@ -25959,7 +26138,7 @@
         <v>4842</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>2590</v>
       </c>
@@ -25967,7 +26146,7 @@
         <v>4843</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>2442</v>
       </c>
@@ -25975,7 +26154,7 @@
         <v>4655</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>2591</v>
       </c>
@@ -25983,7 +26162,7 @@
         <v>4844</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>2592</v>
       </c>
@@ -25991,15 +26170,18 @@
         <v>4845</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>2593</v>
       </c>
       <c r="B110" t="s">
         <v>4846</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D110" t="s">
+        <v>6165</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>2594</v>
       </c>
@@ -26007,7 +26189,7 @@
         <v>4847</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>2595</v>
       </c>
@@ -26015,7 +26197,7 @@
         <v>4848</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>2596</v>
       </c>
@@ -26023,7 +26205,7 @@
         <v>4849</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>2597</v>
       </c>
@@ -26031,15 +26213,18 @@
         <v>4850</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>2598</v>
       </c>
       <c r="B115" t="s">
         <v>4851</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D115" t="s">
+        <v>6166</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>2587</v>
       </c>
@@ -26047,7 +26232,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>2599</v>
       </c>
@@ -26055,7 +26240,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>2600</v>
       </c>
@@ -26063,7 +26248,7 @@
         <v>4852</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>2442</v>
       </c>
@@ -26071,7 +26256,7 @@
         <v>4655</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>2601</v>
       </c>
@@ -26079,7 +26264,7 @@
         <v>4853</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>2602</v>
       </c>
@@ -26087,7 +26272,7 @@
         <v>4854</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>2587</v>
       </c>
@@ -26095,7 +26280,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>2603</v>
       </c>
@@ -26103,7 +26288,7 @@
         <v>4855</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>2442</v>
       </c>
@@ -26111,7 +26296,7 @@
         <v>4655</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>2604</v>
       </c>
@@ -26119,7 +26304,7 @@
         <v>4856</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>2605</v>
       </c>
@@ -26127,7 +26312,7 @@
         <v>4857</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>2606</v>
       </c>
@@ -26135,7 +26320,7 @@
         <v>4858</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>2607</v>
       </c>
@@ -26353,8 +26538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D324"/>
   <sheetViews>
-    <sheetView topLeftCell="A287" workbookViewId="0">
-      <selection activeCell="A303" sqref="A303"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26477,12 +26662,12 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>53</v>
       </c>
@@ -26490,7 +26675,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>2628</v>
       </c>
@@ -26498,60 +26683,63 @@
         <v>4888</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>2629</v>
       </c>
       <c r="B22" t="s">
         <v>4889</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>6167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>2630</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>2631</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2632</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>2633</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>2634</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>2635</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>2636</v>
       </c>
@@ -27023,9 +27211,6 @@
       <c r="A106" t="s">
         <v>2685</v>
       </c>
-      <c r="B106" t="s">
-        <v>4906</v>
-      </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
@@ -27055,6 +27240,9 @@
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>2691</v>
+      </c>
+      <c r="B112" t="s">
+        <v>4906</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
@@ -50777,10 +50965,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D405"/>
+  <dimension ref="A1:D388"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A327" workbookViewId="0">
+      <selection activeCell="A342" sqref="A342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -51026,97 +51214,150 @@
         <v>705</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B62" s="10" t="s">
-        <v>4018</v>
-      </c>
-    </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>4019</v>
+        <v>3967</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="B64" t="s">
-        <v>4020</v>
+        <v>3967</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B65" t="s">
-        <v>4021</v>
+      <c r="B65" s="10" t="s">
+        <v>3967</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B66" s="10" t="s">
+      <c r="A66" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B67" t="s">
+        <v>3842</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B68" s="19" t="s">
+        <v>3843</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B69" t="s">
+        <v>3844</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B70" t="s">
+        <v>3845</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B71" s="19" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B72" t="s">
+        <v>3847</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B73" s="10" t="s">
         <v>3848</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B67" t="s">
-        <v>2167</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B68" s="10" t="s">
-        <v>4018</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B71" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B72" t="s">
-        <v>4022</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B73" t="s">
-        <v>4023</v>
-      </c>
-    </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>1700</v>
+      </c>
       <c r="B74" t="s">
-        <v>4024</v>
+        <v>3849</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B75" t="s">
-        <v>4025</v>
+      <c r="A75" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B76" s="10" t="s">
+      <c r="A76" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B76" t="s">
+        <v>3850</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B77" t="s">
+        <v>3851</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>3848</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B77" t="s">
-        <v>4026</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B78" t="s">
-        <v>4027</v>
-      </c>
-    </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>1703</v>
+      </c>
       <c r="B79" t="s">
-        <v>3967</v>
+        <v>3852</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="6" t="s">
-        <v>52</v>
+      <c r="A80" t="s">
+        <v>1704</v>
       </c>
       <c r="B80" t="s">
-        <v>3967</v>
+        <v>3853</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B81" s="10" t="s">
-        <v>3967</v>
+      <c r="A81" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B81" t="s">
+        <v>3854</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -51129,676 +51370,681 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>1693</v>
+        <v>1706</v>
       </c>
       <c r="B83" t="s">
-        <v>3842</v>
+        <v>3855</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>1694</v>
-      </c>
-      <c r="B84" s="10" t="s">
-        <v>3843</v>
+        <v>1707</v>
+      </c>
+      <c r="B84" t="s">
+        <v>3856</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>1695</v>
-      </c>
       <c r="B85" t="s">
-        <v>3844</v>
+        <v>3967</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>1696</v>
+      <c r="A86" s="6" t="s">
+        <v>1651</v>
       </c>
       <c r="B86" t="s">
-        <v>3845</v>
+        <v>3967</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>1697</v>
-      </c>
-      <c r="B87" s="10" t="s">
-        <v>3846</v>
+      <c r="B87" t="s">
+        <v>3967</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>1698</v>
-      </c>
-      <c r="B88" t="s">
-        <v>3847</v>
+      <c r="A88" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
-        <v>1699</v>
-      </c>
-      <c r="B89" s="10" t="s">
-        <v>3848</v>
+      <c r="A89" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B89" t="s">
+        <v>3795</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>1700</v>
+        <v>647</v>
       </c>
       <c r="B90" t="s">
-        <v>3849</v>
+        <v>3796</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B91" s="10" t="s">
-        <v>126</v>
+        <v>1653</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>3797</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>1701</v>
+        <v>1654</v>
       </c>
       <c r="B92" t="s">
-        <v>3850</v>
+        <v>3798</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>1702</v>
+        <v>1655</v>
       </c>
       <c r="B93" t="s">
-        <v>3851</v>
+        <v>3799</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
-        <v>1699</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>3848</v>
+      <c r="A94" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B94" t="s">
+        <v>3800</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>1703</v>
+        <v>1657</v>
       </c>
       <c r="B95" t="s">
-        <v>3852</v>
+        <v>3801</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>1704</v>
+        <v>1658</v>
       </c>
       <c r="B96" t="s">
-        <v>3853</v>
+        <v>3802</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>1705</v>
+        <v>1659</v>
       </c>
       <c r="B97" t="s">
-        <v>3854</v>
+        <v>3803</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>59</v>
+        <v>828</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>126</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>1706</v>
+        <v>1660</v>
       </c>
       <c r="B99" t="s">
-        <v>3855</v>
+        <v>3804</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>1707</v>
+        <v>1661</v>
       </c>
       <c r="B100" t="s">
-        <v>3856</v>
+        <v>3805</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>1662</v>
+      </c>
       <c r="B101" t="s">
-        <v>3967</v>
+        <v>3806</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="6" t="s">
-        <v>1651</v>
-      </c>
-      <c r="B102" t="s">
-        <v>3967</v>
+      <c r="A102" s="1" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>3797</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>1663</v>
+      </c>
       <c r="B103" t="s">
-        <v>3967</v>
+        <v>3807</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>1047</v>
+      <c r="A104" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B104" t="s">
+        <v>3808</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>1652</v>
+        <v>1665</v>
       </c>
       <c r="B105" t="s">
-        <v>3795</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>647</v>
-      </c>
       <c r="B106" t="s">
-        <v>3796</v>
+        <v>3967</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="1" t="s">
-        <v>1653</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>3797</v>
+      <c r="A107" s="6" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B107" t="s">
+        <v>3967</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>1654</v>
+        <v>3967</v>
       </c>
       <c r="B108" t="s">
-        <v>3798</v>
+        <v>3967</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>1655</v>
+      <c r="A109" s="6" t="s">
+        <v>1709</v>
       </c>
       <c r="B109" t="s">
-        <v>3799</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>1656</v>
-      </c>
-      <c r="B110" t="s">
-        <v>3800</v>
+        <v>3967</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>1657</v>
-      </c>
-      <c r="B111" t="s">
-        <v>3801</v>
+      <c r="A111" s="1" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>1541</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>1658</v>
+        <v>1710</v>
       </c>
       <c r="B112" t="s">
-        <v>3802</v>
+        <v>3857</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>1659</v>
+        <v>1711</v>
       </c>
       <c r="B113" t="s">
-        <v>3803</v>
+        <v>3858</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>828</v>
+        <v>1699</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>1047</v>
+        <v>3848</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>1660</v>
-      </c>
-      <c r="B115" t="s">
-        <v>3804</v>
+        <v>1712</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>3859</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>1661</v>
+        <v>1713</v>
       </c>
       <c r="B116" t="s">
-        <v>3805</v>
+        <v>3860</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>1662</v>
+        <v>1714</v>
       </c>
       <c r="B117" t="s">
-        <v>3806</v>
+        <v>3861</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" s="1" t="s">
-        <v>1653</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>3797</v>
+      <c r="A118" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B118" t="s">
+        <v>3862</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>1663</v>
+        <v>1716</v>
       </c>
       <c r="B119" t="s">
-        <v>3807</v>
+        <v>3863</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>1664</v>
-      </c>
-      <c r="B120" t="s">
-        <v>3808</v>
+      <c r="A120" s="1" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>1541</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>1665</v>
-      </c>
-      <c r="B121" t="s">
-        <v>3809</v>
+        <v>1301</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>3864</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>1717</v>
+      </c>
       <c r="B122" t="s">
-        <v>3967</v>
+        <v>3865</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" s="6" t="s">
-        <v>1708</v>
+      <c r="A123" t="s">
+        <v>1718</v>
       </c>
       <c r="B123" t="s">
-        <v>3967</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>3967</v>
-      </c>
-      <c r="B124" t="s">
-        <v>3967</v>
+      <c r="A124" s="1" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>3866</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" s="6" t="s">
-        <v>1709</v>
-      </c>
-      <c r="B125" t="s">
-        <v>3967</v>
+      <c r="A125" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>3867</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B126" t="s">
+        <v>3868</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" s="1" t="s">
-        <v>1361</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>1541</v>
+      <c r="A127" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B127" t="s">
+        <v>3869</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>1710</v>
+        <v>1723</v>
       </c>
       <c r="B128" t="s">
-        <v>3857</v>
+        <v>3870</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>1711</v>
+        <v>1724</v>
       </c>
       <c r="B129" t="s">
-        <v>3858</v>
+        <v>3871</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" s="1" t="s">
-        <v>1699</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>3848</v>
+      <c r="A130" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B130" t="s">
+        <v>3872</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" s="1"/>
+      <c r="A131" s="1" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>1541</v>
+      </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>1712</v>
+        <v>1726</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>3859</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>1713</v>
+        <v>1727</v>
       </c>
       <c r="B133" t="s">
-        <v>3860</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>1714</v>
-      </c>
-      <c r="B134" t="s">
-        <v>3861</v>
+        <v>3873</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>1715</v>
-      </c>
-      <c r="B135" t="s">
-        <v>3862</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>1716</v>
-      </c>
-      <c r="B136" t="s">
-        <v>3863</v>
+      <c r="A135" s="6" t="s">
+        <v>1728</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>1361</v>
+        <v>313</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>1541</v>
+        <v>355</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>1301</v>
-      </c>
-      <c r="B138" s="7" t="s">
-        <v>3864</v>
+        <v>1729</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1729</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>1717</v>
+        <v>1730</v>
       </c>
       <c r="B139" t="s">
-        <v>3865</v>
+        <v>3874</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>1718</v>
-      </c>
-      <c r="B140" t="s">
-        <v>1718</v>
+      <c r="A140" s="1" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>3848</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141" s="1" t="s">
-        <v>1719</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>3866</v>
+      <c r="A141" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B141" t="s">
+        <v>3875</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>1720</v>
-      </c>
-      <c r="B142" s="7" t="s">
-        <v>3867</v>
+        <v>1732</v>
+      </c>
+      <c r="B142" t="s">
+        <v>3876</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
-        <v>1721</v>
-      </c>
-      <c r="B143" t="s">
-        <v>3868</v>
+      <c r="A143" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>1722</v>
+        <v>1733</v>
       </c>
       <c r="B144" t="s">
-        <v>3869</v>
+        <v>3877</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>1723</v>
+        <v>1734</v>
       </c>
       <c r="B145" t="s">
-        <v>3870</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>1724</v>
+        <v>1735</v>
       </c>
       <c r="B146" t="s">
-        <v>3871</v>
+        <v>3879</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
-        <v>1725</v>
-      </c>
-      <c r="B147" t="s">
-        <v>3872</v>
+      <c r="A147" s="1" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>3866</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" s="1" t="s">
-        <v>1361</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>1541</v>
+      <c r="A148" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B148" t="s">
+        <v>3880</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>1726</v>
-      </c>
-      <c r="B149" s="7" t="s">
-        <v>1517</v>
+        <v>1737</v>
+      </c>
+      <c r="B149" t="s">
+        <v>3881</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>1727</v>
+        <v>1738</v>
       </c>
       <c r="B150" t="s">
-        <v>3873</v>
+        <v>3882</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B151" t="s">
+        <v>3883</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152" s="6" t="s">
-        <v>1728</v>
+      <c r="A152" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B153" t="s">
+        <v>3884</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>355</v>
+      <c r="A154" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B154" t="s">
+        <v>3885</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
-        <v>1729</v>
-      </c>
-      <c r="B155" t="s">
-        <v>1729</v>
+      <c r="A155" s="1" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>3866</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>1730</v>
+        <v>1742</v>
       </c>
       <c r="B156" t="s">
-        <v>3874</v>
+        <v>3886</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157" s="1" t="s">
-        <v>1699</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>3848</v>
+      <c r="A157" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B157" t="s">
+        <v>3887</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>1731</v>
+        <v>1744</v>
       </c>
       <c r="B158" t="s">
-        <v>3875</v>
+        <v>3888</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
-        <v>1732</v>
-      </c>
-      <c r="B159" t="s">
-        <v>3876</v>
+      <c r="A159" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160" s="1" t="s">
+      <c r="A160" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B160" t="s">
+        <v>3864</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>3866</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B162" t="s">
+        <v>3889</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>1746</v>
+      </c>
+      <c r="D163" t="s">
+        <v>6132</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>1747</v>
+      </c>
+      <c r="B164" t="s">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B165" t="s">
+        <v>3891</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B166" t="s">
+        <v>3892</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="B167" s="1" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
-        <v>1733</v>
-      </c>
-      <c r="B161" t="s">
-        <v>3877</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
-        <v>1734</v>
-      </c>
-      <c r="B162" t="s">
-        <v>3878</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
-        <v>1735</v>
-      </c>
-      <c r="B163" t="s">
-        <v>3879</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A164" s="1" t="s">
-        <v>1719</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>3866</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
-        <v>1736</v>
-      </c>
-      <c r="B165" t="s">
-        <v>3880</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
-        <v>1737</v>
-      </c>
-      <c r="B166" t="s">
-        <v>3881</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
-        <v>1738</v>
-      </c>
-      <c r="B167" t="s">
-        <v>3882</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>1739</v>
+        <v>1750</v>
       </c>
       <c r="B168" t="s">
-        <v>3883</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A169" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B169" t="s">
+        <v>3893</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>1740</v>
+        <v>1752</v>
       </c>
       <c r="B170" t="s">
-        <v>3884</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+        <v>3894</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>1741</v>
+        <v>1753</v>
       </c>
       <c r="B171" t="s">
-        <v>3885</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+        <v>3895</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>1719</v>
       </c>
@@ -51806,1200 +52052,1085 @@
         <v>3866</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>1742</v>
+        <v>1754</v>
       </c>
       <c r="B173" t="s">
-        <v>3886</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+        <v>3896</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>1743</v>
+        <v>1755</v>
       </c>
       <c r="B174" t="s">
-        <v>3887</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+        <v>3897</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>1744</v>
+        <v>1756</v>
       </c>
       <c r="B175" t="s">
-        <v>3888</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A176" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>355</v>
+        <v>3898</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
-        <v>1301</v>
-      </c>
-      <c r="B177" t="s">
-        <v>3864</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A178" s="1" t="s">
+      <c r="A177" s="6" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B179" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B180" t="s">
+        <v>3899</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B181" t="s">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B182" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B183" t="s">
+        <v>3901</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B184" t="s">
+        <v>3902</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B185" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B186" t="s">
+        <v>3903</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B187" t="s">
+        <v>3904</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" s="6" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B191" s="1" t="s">
+        <v>3905</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B192" t="s">
+        <v>3906</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B193" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B194" t="s">
+        <v>3907</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B195" s="1" t="s">
+        <v>3905</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B196" t="s">
+        <v>3908</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B197" t="s">
+        <v>3909</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B198" s="1" t="s">
+        <v>3910</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B199" t="s">
+        <v>3911</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B200" t="s">
+        <v>3912</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B201" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B202" t="s">
+        <v>3913</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B203" t="s">
+        <v>3914</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B204" s="1" t="s">
+        <v>3905</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B205" t="s">
+        <v>3915</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B206" t="s">
+        <v>3916</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B207" s="1" t="s">
+        <v>3910</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B208" t="s">
+        <v>3917</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B209" t="s">
+        <v>3918</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B210" t="s">
+        <v>3919</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B211" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B212" t="s">
+        <v>3920</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B213" t="s">
+        <v>3921</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" s="6" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" s="1" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>3797</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B218" t="s">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" s="6" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" s="1" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>3797</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B223" t="s">
+        <v>3811</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" s="6" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" s="1" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>3848</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" s="7" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B228" t="s">
+        <v>3922</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B229" t="s">
+        <v>3923</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" s="6" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" s="1" t="s">
         <v>1719</v>
       </c>
-      <c r="B178" s="1" t="s">
+      <c r="B233" s="1" t="s">
         <v>3866</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
-        <v>1745</v>
-      </c>
-      <c r="B179" t="s">
-        <v>3889</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A180" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
-        <v>1747</v>
-      </c>
-      <c r="B181" t="s">
-        <v>3890</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
-        <v>1748</v>
-      </c>
-      <c r="B182" t="s">
-        <v>3891</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
-        <v>1749</v>
-      </c>
-      <c r="B183" t="s">
-        <v>3892</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A184" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A185" t="s">
-        <v>1750</v>
-      </c>
-      <c r="B185" t="s">
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A186" t="s">
-        <v>1751</v>
-      </c>
-      <c r="B186" t="s">
-        <v>3893</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A187" t="s">
-        <v>1752</v>
-      </c>
-      <c r="B187" t="s">
-        <v>3894</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A188" t="s">
-        <v>1753</v>
-      </c>
-      <c r="B188" t="s">
-        <v>3895</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A189" s="1" t="s">
-        <v>1719</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>3866</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A190" t="s">
-        <v>1754</v>
-      </c>
-      <c r="B190" t="s">
-        <v>3896</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A191" t="s">
-        <v>1755</v>
-      </c>
-      <c r="B191" t="s">
-        <v>3897</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A192" t="s">
-        <v>1756</v>
-      </c>
-      <c r="B192" t="s">
-        <v>3898</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A194" s="6" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B196" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B197" t="s">
-        <v>3899</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B198" t="s">
-        <v>3900</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B199" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B200" t="s">
-        <v>3901</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B201" t="s">
-        <v>3902</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B202" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B203" t="s">
-        <v>3903</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B204" t="s">
-        <v>3904</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A206" s="6" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B208" s="1" t="s">
-        <v>3905</v>
-      </c>
-    </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B209" t="s">
-        <v>3906</v>
-      </c>
-    </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B210" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B211" t="s">
-        <v>3907</v>
-      </c>
-    </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B212" s="1" t="s">
-        <v>3905</v>
-      </c>
-    </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B213" t="s">
-        <v>3908</v>
-      </c>
-    </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B214" t="s">
-        <v>3909</v>
-      </c>
-    </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B215" s="1" t="s">
-        <v>3910</v>
-      </c>
-    </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B216" t="s">
-        <v>3911</v>
-      </c>
-    </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B217" t="s">
-        <v>3912</v>
-      </c>
-    </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B218" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B219" t="s">
-        <v>3913</v>
-      </c>
-    </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B220" t="s">
-        <v>3914</v>
-      </c>
-    </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B221" s="1" t="s">
-        <v>3905</v>
-      </c>
-    </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B222" t="s">
-        <v>3915</v>
-      </c>
-    </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B223" t="s">
-        <v>3916</v>
-      </c>
-    </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B224" s="1" t="s">
-        <v>3910</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B225" t="s">
-        <v>3917</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B226" t="s">
-        <v>3918</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B227" t="s">
-        <v>3919</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B228" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B229" t="s">
-        <v>3920</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B230" t="s">
-        <v>3921</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A232" s="6" t="s">
-        <v>1666</v>
-      </c>
-    </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A234" s="1" t="s">
-        <v>1653</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>3797</v>
+      <c r="A234" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B234" t="s">
+        <v>3924</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>1667</v>
-      </c>
-      <c r="B235" t="s">
-        <v>3810</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" s="6" t="s">
-        <v>1668</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
-        <v>1653</v>
+        <v>59</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>3797</v>
+        <v>126</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>1669</v>
+        <v>1764</v>
       </c>
       <c r="B240" t="s">
-        <v>3811</v>
+        <v>3925</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B241" t="s">
+        <v>1765</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A242" s="6" t="s">
-        <v>1757</v>
+      <c r="A242" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B242" t="s">
+        <v>3926</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>1767</v>
+      </c>
+      <c r="B243" t="s">
+        <v>3927</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A244" s="1" t="s">
-        <v>1699</v>
-      </c>
-      <c r="B244" s="1" t="s">
-        <v>3848</v>
+      <c r="A244" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B244" t="s">
+        <v>3928</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A245" s="7" t="s">
-        <v>1758</v>
+      <c r="A245" t="s">
+        <v>1769</v>
       </c>
       <c r="B245" t="s">
-        <v>3922</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>1759</v>
+        <v>1770</v>
       </c>
       <c r="B246" t="s">
-        <v>3923</v>
+        <v>3930</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B247" t="s">
+        <v>3931</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A248" s="6" t="s">
-        <v>1760</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A250" s="1" t="s">
-        <v>1719</v>
-      </c>
-      <c r="B250" s="1" t="s">
-        <v>3866</v>
+      <c r="A248" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B248" t="s">
+        <v>3932</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B249" t="s">
+        <v>3933</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A251" t="s">
-        <v>1761</v>
-      </c>
-      <c r="B251" t="s">
-        <v>3924</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A252" t="s">
-        <v>1762</v>
+      <c r="A251" s="6" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B253" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A254" s="6" t="s">
-        <v>1763</v>
+      <c r="B254" t="s">
+        <v>3934</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B255" t="s">
+        <v>3935</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A256" s="1" t="s">
+      <c r="B256" t="s">
+        <v>3936</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B257" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B258" t="s">
+        <v>3937</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B259" t="s">
+        <v>3938</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B260" t="s">
+        <v>3939</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B261" t="s">
+        <v>3940</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B262" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B263" t="s">
+        <v>3941</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B264" t="s">
+        <v>3942</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266" s="6" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B268" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B269" s="2" t="s">
+        <v>3943</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B271" s="5" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B272" s="2" t="s">
+        <v>3944</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B274" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B275" s="2" t="s">
+        <v>3945</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277" s="6" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B256" s="1" t="s">
+      <c r="B279" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A257" t="s">
-        <v>1764</v>
-      </c>
-      <c r="B257" t="s">
-        <v>3925</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A258" t="s">
-        <v>1765</v>
-      </c>
-      <c r="B258" t="s">
-        <v>1765</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A259" t="s">
-        <v>1766</v>
-      </c>
-      <c r="B259" t="s">
-        <v>3926</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A260" t="s">
-        <v>1767</v>
-      </c>
-      <c r="B260" t="s">
-        <v>3927</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A261" t="s">
-        <v>1768</v>
-      </c>
-      <c r="B261" t="s">
-        <v>3928</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A262" t="s">
-        <v>1769</v>
-      </c>
-      <c r="B262" t="s">
-        <v>3929</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A263" t="s">
-        <v>1770</v>
-      </c>
-      <c r="B263" t="s">
-        <v>3930</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A264" t="s">
-        <v>1771</v>
-      </c>
-      <c r="B264" t="s">
-        <v>3931</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A265" t="s">
-        <v>1772</v>
-      </c>
-      <c r="B265" t="s">
-        <v>3932</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A266" t="s">
-        <v>1773</v>
-      </c>
-      <c r="B266" t="s">
-        <v>3933</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A268" s="6" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B270" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B271" t="s">
-        <v>3934</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B272" t="s">
-        <v>3935</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B273" t="s">
-        <v>3936</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B274" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B275" t="s">
-        <v>3937</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B276" t="s">
-        <v>3938</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B277" t="s">
-        <v>3939</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B278" t="s">
-        <v>3940</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B279" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>1775</v>
+      </c>
       <c r="B280" t="s">
-        <v>3941</v>
+        <v>3946</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>1776</v>
+      </c>
       <c r="B281" t="s">
-        <v>3942</v>
+        <v>3947</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" s="6" t="s">
-        <v>705</v>
+        <v>471</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B285" s="5" t="s">
-        <v>126</v>
+      <c r="A285" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B286" s="2" t="s">
-        <v>3943</v>
+      <c r="A286" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>1778</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B288" s="5" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B289" s="2" t="s">
-        <v>3944</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B291" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B292" s="2" t="s">
-        <v>3945</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A294" s="6" t="s">
-        <v>1774</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B289" t="s">
+        <v>3948</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B290" t="s">
+        <v>3949</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A292" s="1" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>3950</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B293" t="s">
+        <v>3951</v>
+      </c>
+      <c r="D293" t="s">
+        <v>6133</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A294" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D294" t="s">
+        <v>6134</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>1784</v>
+      </c>
+      <c r="D295" t="s">
+        <v>6135</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B296" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1782</v>
+      </c>
+      <c r="D296" t="s">
+        <v>6136</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>1775</v>
-      </c>
-      <c r="B297" t="s">
-        <v>3946</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>1776</v>
+        <v>1786</v>
       </c>
       <c r="B298" t="s">
-        <v>3947</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A300" s="6" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A302" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A303" t="s">
-        <v>1777</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+        <v>3967</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B299" t="s">
+        <v>3952</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A300" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B301" t="s">
+        <v>3953</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A303" s="1" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>3950</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>1778</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A305" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B304" t="s">
+        <v>3954</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B305" t="s">
+        <v>3955</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B306" t="s">
+        <v>3956</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B307" t="s">
+        <v>3957</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B308" t="s">
+        <v>3958</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B309" t="s">
+        <v>3959</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B311" t="s">
+        <v>3960</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B312" t="s">
+        <v>3967</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D313" t="s">
+        <v>6137</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A316" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B305" t="s">
+      <c r="B316" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A306" t="s">
-        <v>1779</v>
-      </c>
-      <c r="B306" t="s">
-        <v>3948</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A307" t="s">
-        <v>1780</v>
-      </c>
-      <c r="B307" t="s">
-        <v>3949</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A308" t="s">
-        <v>1781</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A309" s="1" t="s">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B317" t="s">
+        <v>3961</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B318" t="s">
+        <v>3962</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B319" t="s">
+        <v>3963</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B320" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B321" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>1807</v>
+      </c>
+      <c r="B322" t="s">
+        <v>3966</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D323" t="s">
+        <v>6138</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A324" s="1" t="s">
         <v>1782</v>
       </c>
-      <c r="B309" s="1" t="s">
+      <c r="B324" s="1" t="s">
         <v>3950</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A310" t="s">
-        <v>1783</v>
-      </c>
-      <c r="B310" t="s">
-        <v>3951</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A311" s="1" t="s">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>1809</v>
+      </c>
+      <c r="B325" t="s">
+        <v>3968</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B326" t="s">
+        <v>3969</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B329" t="s">
+        <v>3970</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B330" t="s">
+        <v>3971</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A331" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A312" t="s">
-        <v>1784</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A313" s="1" t="s">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A334" s="1" t="s">
         <v>1782</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A314" t="s">
-        <v>1785</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A315" t="s">
-        <v>1786</v>
-      </c>
-      <c r="B315" t="s">
-        <v>3967</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A316" t="s">
-        <v>1787</v>
-      </c>
-      <c r="B316" t="s">
-        <v>3952</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A317" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B317" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A318" t="s">
-        <v>1788</v>
-      </c>
-      <c r="B318" t="s">
-        <v>3953</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A319" t="s">
-        <v>1789</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A320" s="1" t="s">
-        <v>1782</v>
-      </c>
-      <c r="B320" s="1" t="s">
-        <v>3950</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A321" t="s">
-        <v>1790</v>
-      </c>
-      <c r="B321" t="s">
-        <v>3954</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A322" t="s">
-        <v>1791</v>
-      </c>
-      <c r="B322" t="s">
-        <v>3955</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A323" t="s">
-        <v>1792</v>
-      </c>
-      <c r="B323" t="s">
-        <v>3956</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A324" t="s">
-        <v>1793</v>
-      </c>
-      <c r="B324" t="s">
-        <v>3957</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A325" t="s">
-        <v>1794</v>
-      </c>
-      <c r="B325" t="s">
-        <v>3958</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A326" t="s">
-        <v>1795</v>
-      </c>
-      <c r="B326" t="s">
-        <v>3959</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A327" t="s">
-        <v>1796</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A328" t="s">
-        <v>1797</v>
-      </c>
-      <c r="B328" t="s">
-        <v>3960</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A329" t="s">
-        <v>1798</v>
-      </c>
-      <c r="B329" t="s">
-        <v>3967</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A330" t="s">
-        <v>1799</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A331" t="s">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A332" t="s">
-        <v>1801</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A333" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B333" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A334" t="s">
-        <v>1802</v>
-      </c>
-      <c r="B334" t="s">
-        <v>3961</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>1803</v>
+        <v>1817</v>
       </c>
       <c r="B335" t="s">
-        <v>3962</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+        <v>3972</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>1804</v>
+        <v>1818</v>
       </c>
       <c r="B336" t="s">
-        <v>3963</v>
+        <v>3973</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>1805</v>
+        <v>1819</v>
       </c>
       <c r="B337" t="s">
-        <v>3964</v>
+        <v>3974</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>1806</v>
+        <v>1820</v>
       </c>
       <c r="B338" t="s">
-        <v>3965</v>
+        <v>3975</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A339" t="s">
-        <v>1807</v>
+      <c r="A339" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B339" t="s">
-        <v>3966</v>
+        <v>130</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>1808</v>
+        <v>981</v>
+      </c>
+      <c r="B340" t="s">
+        <v>1008</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A341" s="1" t="s">
-        <v>1782</v>
+      <c r="A341" t="s">
+        <v>1821</v>
       </c>
       <c r="B341" t="s">
-        <v>3950</v>
+        <v>3976</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>1809</v>
-      </c>
-      <c r="B342" t="s">
-        <v>3968</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A343" t="s">
-        <v>1810</v>
-      </c>
-      <c r="B343" t="s">
-        <v>3969</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A344" t="s">
-        <v>1811</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A345" t="s">
-        <v>1812</v>
+      <c r="A344" s="6" t="s">
+        <v>3993</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A346" t="s">
-        <v>1813</v>
-      </c>
-      <c r="B346" t="s">
-        <v>3970</v>
+      <c r="B346" s="5" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A347" t="s">
-        <v>1814</v>
-      </c>
-      <c r="B347" t="s">
-        <v>3971</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A348" s="1" t="s">
-        <v>53</v>
+      <c r="B347" s="2" t="s">
+        <v>3977</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A349" t="s">
-        <v>1815</v>
+      <c r="B349" s="5" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A350" t="s">
-        <v>1816</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A351" s="1" t="s">
-        <v>1782</v>
+      <c r="B350" s="2" t="s">
+        <v>3978</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A352" t="s">
-        <v>1817</v>
-      </c>
-      <c r="B352" t="s">
-        <v>3972</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A353" t="s">
-        <v>1818</v>
-      </c>
-      <c r="B353" t="s">
-        <v>3973</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A354" t="s">
-        <v>1819</v>
-      </c>
-      <c r="B354" t="s">
-        <v>3974</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A355" t="s">
-        <v>1820</v>
-      </c>
-      <c r="B355" t="s">
-        <v>3975</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A356" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B356" t="s">
+      <c r="B352" s="5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A357" t="s">
-        <v>981</v>
-      </c>
-      <c r="B357" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A358" t="s">
-        <v>1821</v>
-      </c>
-      <c r="B358" t="s">
-        <v>3976</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A359" t="s">
-        <v>1822</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A361" s="6" t="s">
-        <v>3993</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B363" s="5" t="s">
+    <row r="353" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B353" s="2" t="s">
+        <v>3979</v>
+      </c>
+    </row>
+    <row r="355" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B355" s="9" t="s">
+        <v>3980</v>
+      </c>
+    </row>
+    <row r="357" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B357" s="5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B364" s="2" t="s">
-        <v>3977</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B366" s="5" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B367" s="2" t="s">
-        <v>3978</v>
-      </c>
-    </row>
-    <row r="369" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B369" s="5" t="s">
+    <row r="358" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B358" s="2" t="s">
+        <v>3981</v>
+      </c>
+    </row>
+    <row r="360" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B360" s="9" t="s">
+        <v>3982</v>
+      </c>
+    </row>
+    <row r="362" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B362" s="5" t="s">
         <v>130</v>
       </c>
     </row>
+    <row r="363" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B363" s="2" t="s">
+        <v>3983</v>
+      </c>
+    </row>
+    <row r="365" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B365" s="9" t="s">
+        <v>3984</v>
+      </c>
+    </row>
+    <row r="367" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B367" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="368" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B368" s="2" t="s">
+        <v>3985</v>
+      </c>
+    </row>
     <row r="370" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B370" s="2" t="s">
-        <v>3979</v>
+      <c r="B370" s="9" t="s">
+        <v>3986</v>
       </c>
     </row>
     <row r="372" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B372" s="9" t="s">
-        <v>3980</v>
-      </c>
-    </row>
-    <row r="374" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B374" s="5" t="s">
+      <c r="B372" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="373" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B373" s="2" t="s">
+        <v>3987</v>
+      </c>
+    </row>
+    <row r="375" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B375" s="5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="375" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B375" s="2" t="s">
-        <v>3981</v>
-      </c>
-    </row>
-    <row r="377" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B377" s="9" t="s">
-        <v>3982</v>
+    <row r="376" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B376" s="2" t="s">
+        <v>3988</v>
+      </c>
+    </row>
+    <row r="378" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B378" s="5" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="379" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B379" s="5" t="s">
+      <c r="B379" s="2" t="s">
+        <v>3989</v>
+      </c>
+    </row>
+    <row r="381" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B381" s="5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="380" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B380" s="2" t="s">
-        <v>3983</v>
-      </c>
-    </row>
     <row r="382" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B382" s="9" t="s">
-        <v>3984</v>
+      <c r="B382" s="2" t="s">
+        <v>3990</v>
       </c>
     </row>
     <row r="384" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B384" s="5" t="s">
-        <v>130</v>
+        <v>684</v>
       </c>
     </row>
     <row r="385" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B385" s="2" t="s">
-        <v>3985</v>
+        <v>3991</v>
       </c>
     </row>
     <row r="387" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B387" s="9" t="s">
-        <v>3986</v>
-      </c>
-    </row>
-    <row r="389" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B389" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="390" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B390" s="2" t="s">
-        <v>3987</v>
-      </c>
-    </row>
-    <row r="392" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B392" s="5" t="s">
+      <c r="B387" s="5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="393" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B393" s="2" t="s">
-        <v>3988</v>
-      </c>
-    </row>
-    <row r="395" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B395" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="396" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B396" s="2" t="s">
-        <v>3989</v>
-      </c>
-    </row>
-    <row r="398" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B398" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="399" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B399" s="2" t="s">
-        <v>3990</v>
-      </c>
-    </row>
-    <row r="401" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B401" s="5" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="402" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B402" s="2" t="s">
-        <v>3991</v>
-      </c>
-    </row>
-    <row r="404" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B404" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="405" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B405" s="2" t="s">
+    <row r="388" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B388" s="2" t="s">
         <v>3992</v>
       </c>
     </row>
@@ -53012,8 +53143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D393"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+    <sheetView topLeftCell="A223" workbookViewId="0">
+      <selection activeCell="A233" sqref="A233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -54045,22 +54176,25 @@
         <v>53</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>1896</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D193" t="s">
+        <v>6139</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>1897</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>1898</v>
       </c>
@@ -54068,7 +54202,7 @@
         <v>4088</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>1899</v>
       </c>
@@ -54076,15 +54210,18 @@
         <v>4089</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D198" t="s">
+        <v>6140</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>1900</v>
       </c>
@@ -54092,12 +54229,12 @@
         <v>4090</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>1901</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>56</v>
       </c>
@@ -54105,7 +54242,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>1902</v>
       </c>
@@ -54113,43 +54250,43 @@
         <v>4091</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="1"/>
       <c r="B203" t="s">
         <v>4092</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="1"/>
       <c r="B204" s="1" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="1"/>
       <c r="B205" t="s">
         <v>4093</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="1"/>
       <c r="B206" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="1"/>
       <c r="B207" t="s">
         <v>4094</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="1"/>
       <c r="B208" t="s">
         <v>4095</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>1903</v>
       </c>
@@ -54157,7 +54294,7 @@
         <v>4096</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>1904</v>
       </c>
@@ -54165,23 +54302,29 @@
         <v>4097</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>1905</v>
       </c>
       <c r="B211" t="s">
         <v>4098</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D211" t="s">
+        <v>6141</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>1906</v>
       </c>
       <c r="B212" t="s">
         <v>4099</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D212" t="s">
+        <v>6142</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>1907</v>
       </c>
@@ -54189,7 +54332,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>1908</v>
       </c>
@@ -54197,7 +54340,7 @@
         <v>4101</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>1909</v>
       </c>
@@ -54205,7 +54348,7 @@
         <v>4102</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>1910</v>
       </c>
@@ -54213,7 +54356,7 @@
         <v>4103</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>1911</v>
       </c>
@@ -54221,7 +54364,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>1912</v>
       </c>
@@ -54229,7 +54372,7 @@
         <v>4105</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>1913</v>
       </c>
@@ -54237,12 +54380,12 @@
         <v>4106</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>1914</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>53</v>
       </c>
@@ -54250,7 +54393,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>1915</v>
       </c>
@@ -54258,7 +54401,7 @@
         <v>4107</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>1916</v>
       </c>
@@ -54266,7 +54409,7 @@
         <v>4108</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>56</v>
       </c>
@@ -54466,8 +54609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D336"/>
   <sheetViews>
-    <sheetView topLeftCell="A245" workbookViewId="0">
-      <selection activeCell="B261" sqref="B254:B261"/>
+    <sheetView topLeftCell="A290" workbookViewId="0">
+      <selection activeCell="B290" sqref="B290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -55255,7 +55398,7 @@
         <v>4196</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>1984</v>
       </c>
@@ -55263,7 +55406,7 @@
         <v>4197</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>1985</v>
       </c>
@@ -55271,7 +55414,7 @@
         <v>4198</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>1986</v>
       </c>
@@ -55279,15 +55422,18 @@
         <v>4199</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>1987</v>
       </c>
       <c r="B132" t="s">
         <v>4200</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D132" t="s">
+        <v>6143</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>1492</v>
       </c>
@@ -55295,12 +55441,12 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
         <v>1988</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>1989</v>
       </c>
@@ -55308,7 +55454,7 @@
         <v>4222</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>1990</v>
       </c>
@@ -55316,7 +55462,7 @@
         <v>4223</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>1991</v>
       </c>
@@ -55324,7 +55470,7 @@
         <v>4224</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>1619</v>
       </c>
@@ -55332,7 +55478,7 @@
         <v>3763</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>1992</v>
       </c>
@@ -55340,7 +55486,7 @@
         <v>4225</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>1993</v>
       </c>
@@ -55348,7 +55494,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>1994</v>
       </c>
@@ -55356,7 +55502,7 @@
         <v>4226</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>1989</v>
       </c>
@@ -56105,7 +56251,7 @@
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B296" t="s">
+      <c r="B296" s="1" t="s">
         <v>684</v>
       </c>
     </row>
@@ -56120,7 +56266,7 @@
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B299" t="s">
+      <c r="B299" s="1" t="s">
         <v>130</v>
       </c>
     </row>
@@ -56130,7 +56276,7 @@
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B301" t="s">
+      <c r="B301" s="1" t="s">
         <v>125</v>
       </c>
     </row>

--- a/FE3 vs FE12.xlsx
+++ b/FE3 vs FE12.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8508" firstSheet="7" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8508" firstSheet="16" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="Terminology" sheetId="48" r:id="rId1"/>
@@ -179,7 +179,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8727" uniqueCount="6168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8776" uniqueCount="6217">
   <si>
     <t>One year has passed since the War of Darkness ended.</t>
   </si>
@@ -18758,6 +18758,153 @@
   </si>
   <si>
     <t>Storytime with Jeigan is once again relegated to base convo</t>
+  </si>
+  <si>
+    <t>Chiki wasn't quite so scared in FE12</t>
+  </si>
+  <si>
+    <t>Adrah the thief's crimes are all forgotten</t>
+  </si>
+  <si>
+    <t>He sure was, Marth</t>
+  </si>
+  <si>
+    <t>Doesn't mention Gra soldiers</t>
+  </si>
+  <si>
+    <t>Retired becomes deserter</t>
+  </si>
+  <si>
+    <t>Marth doesn't ask the feuding villagers to make up</t>
+  </si>
+  <si>
+    <t>They aren't specifically Astria's mercenaries anymore</t>
+  </si>
+  <si>
+    <t>Obsolete hint since dismount is no more</t>
+  </si>
+  <si>
+    <t>Eibel loses his mention</t>
+  </si>
+  <si>
+    <t>Doesn't call out the spell name</t>
+  </si>
+  <si>
+    <t>FE12 doesn't mention Maria for some reason</t>
+  </si>
+  <si>
+    <t>Are you referencing the books of the same name?</t>
+  </si>
+  <si>
+    <t>No more hiding in Pales for Sheema</t>
+  </si>
+  <si>
+    <t>Original talks about foreign Akaneians</t>
+  </si>
+  <si>
+    <t>Remake talks about amateur Gra soldiers</t>
+  </si>
+  <si>
+    <t>No gavelkind on the DS</t>
+  </si>
+  <si>
+    <t>Samson doesn't attack Marth anymore</t>
+  </si>
+  <si>
+    <t>To make Kris oh-so-special, he gets to come up with the plan here</t>
+  </si>
+  <si>
+    <t>Zagaro doesn't spout as much propaganda</t>
+  </si>
+  <si>
+    <t>Nina isn't communicating with anyone anymore</t>
+  </si>
+  <si>
+    <t>No longer explained about how the king got the Life Orb</t>
+  </si>
+  <si>
+    <t>Midia is no longer the coup leader</t>
+  </si>
+  <si>
+    <t>The army composition details are gone</t>
+  </si>
+  <si>
+    <t>Marth doesn't care about Midia, prefering Kris worship</t>
+  </si>
+  <si>
+    <t>Isn't there some Kaga note that gives him a different name?</t>
+  </si>
+  <si>
+    <t>Marth isn't fussed about Nina</t>
+  </si>
+  <si>
+    <t>If this were FE15 they'd have retconned someone else in</t>
+  </si>
+  <si>
+    <t>Marth isn't concerned about the truth</t>
+  </si>
+  <si>
+    <t>Dark Orbs, only $your soul! - Not in FE12, anyway</t>
+  </si>
+  <si>
+    <t>FE3 implies that Hardin only recently killed Boa and handed Nina over</t>
+  </si>
+  <si>
+    <t>FE12 cuts that out and simply handed her over</t>
+  </si>
+  <si>
+    <t>Wow, I can't believe Garnef did it</t>
+  </si>
+  <si>
+    <t>The live sacrifice is removed</t>
+  </si>
+  <si>
+    <t>Doesn't specifiy which tome/staff anymore\</t>
+  </si>
+  <si>
+    <t>He insults the whole knighthood originally, as opposed to just Midia</t>
+  </si>
+  <si>
+    <t>Doesn't specify the Gradius</t>
+  </si>
+  <si>
+    <t>Misheil doesn't account for dead/skipped Minerva</t>
+  </si>
+  <si>
+    <t>Marth doesn't enquire about Mediuth's old job</t>
+  </si>
+  <si>
+    <t>one century versus many centuries</t>
+  </si>
+  <si>
+    <t>Questioning in FE3, certain in FE12</t>
+  </si>
+  <si>
+    <t>Pain into mayhen</t>
+  </si>
+  <si>
+    <t>Mankind will lose the shield in 3</t>
+  </si>
+  <si>
+    <t>Mediuth just threatens to come back if it's lost in 12</t>
+  </si>
+  <si>
+    <t>Marth doesn't notice the sisters look off</t>
+  </si>
+  <si>
+    <t>Your foreshadowing that they're fake…</t>
+  </si>
+  <si>
+    <t>Because the world will end soon…</t>
+  </si>
+  <si>
+    <t>And that's all. With this cut off confession, FE3 ends here.</t>
+  </si>
+  <si>
+    <t>We don't talk about the new stuff.</t>
+  </si>
+  <si>
+    <t>Kris is NOT Marth's other half.</t>
   </si>
 </sst>
 </file>
@@ -26538,8 +26685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
+    <sheetView topLeftCell="A275" workbookViewId="0">
+      <selection activeCell="D299" sqref="D299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27135,7 +27282,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>2679</v>
       </c>
@@ -27143,7 +27290,7 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>2195</v>
       </c>
@@ -27151,7 +27298,7 @@
         <v>4503</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>2680</v>
       </c>
@@ -27159,7 +27306,7 @@
         <v>4901</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>2681</v>
       </c>
@@ -27167,7 +27314,7 @@
         <v>4902</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>53</v>
       </c>
@@ -27175,7 +27322,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>2682</v>
       </c>
@@ -27183,7 +27330,7 @@
         <v>4903</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>2195</v>
       </c>
@@ -27191,7 +27338,7 @@
         <v>4503</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>2683</v>
       </c>
@@ -27199,7 +27346,7 @@
         <v>4904</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>2684</v>
       </c>
@@ -27207,37 +27354,40 @@
         <v>4905</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>2685</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D106" t="s">
+        <v>6169</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>2686</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>2687</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>2688</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>2689</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>2690</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>2691</v>
       </c>
@@ -27245,7 +27395,7 @@
         <v>4906</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>53</v>
       </c>
@@ -27253,32 +27403,35 @@
         <v>130</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>2692</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>2693</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D115" t="s">
+        <v>6170</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>2694</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
         <v>4909</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
         <v>4910</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>2695</v>
       </c>
@@ -27286,7 +27439,7 @@
         <v>4907</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>2696</v>
       </c>
@@ -27294,7 +27447,7 @@
         <v>4908</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>2195</v>
       </c>
@@ -27302,7 +27455,7 @@
         <v>4503</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>2697</v>
       </c>
@@ -27310,7 +27463,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>2698</v>
       </c>
@@ -27318,7 +27471,7 @@
         <v>4912</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>2699</v>
       </c>
@@ -27326,7 +27479,7 @@
         <v>4913</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>2700</v>
       </c>
@@ -27334,7 +27487,7 @@
         <v>4914</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>2701</v>
       </c>
@@ -27342,12 +27495,12 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>2702</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>2703</v>
       </c>
@@ -27580,7 +27733,7 @@
         <v>4944</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>53</v>
       </c>
@@ -27588,7 +27741,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>2723</v>
       </c>
@@ -27596,7 +27749,7 @@
         <v>4945</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>2724</v>
       </c>
@@ -27604,7 +27757,7 @@
         <v>2435</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>2428</v>
       </c>
@@ -27612,7 +27765,7 @@
         <v>4633</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>2725</v>
       </c>
@@ -27620,7 +27773,7 @@
         <v>4946</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>2726</v>
       </c>
@@ -27628,7 +27781,7 @@
         <v>4947</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>2727</v>
       </c>
@@ -27636,7 +27789,7 @@
         <v>4948</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>2728</v>
       </c>
@@ -27644,7 +27797,7 @@
         <v>4949</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>2729</v>
       </c>
@@ -27652,7 +27805,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>2730</v>
       </c>
@@ -27660,7 +27813,7 @@
         <v>4951</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>2731</v>
       </c>
@@ -27668,7 +27821,7 @@
         <v>4952</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>2732</v>
       </c>
@@ -27676,7 +27829,7 @@
         <v>4953</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>2733</v>
       </c>
@@ -27684,17 +27837,20 @@
         <v>4954</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>2734</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D174" t="s">
+        <v>6168</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>2735</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>2736</v>
       </c>
@@ -28568,8 +28724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D257"/>
   <sheetViews>
-    <sheetView topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="C226" sqref="C226"/>
+    <sheetView topLeftCell="A209" workbookViewId="0">
+      <selection activeCell="B233" sqref="B233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28724,24 +28880,24 @@
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="1" t="s">
         <v>5031</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" t="s">
         <v>5032</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>5033</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>1616</v>
       </c>
@@ -28749,7 +28905,7 @@
         <v>3760</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>2784</v>
       </c>
@@ -28757,7 +28913,7 @@
         <v>5034</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>2785</v>
       </c>
@@ -28765,7 +28921,7 @@
         <v>5035</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>2786</v>
       </c>
@@ -28773,7 +28929,7 @@
         <v>5036</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>2787</v>
       </c>
@@ -28781,15 +28937,18 @@
         <v>5037</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>2788</v>
       </c>
       <c r="B41" t="s">
         <v>5038</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
+        <v>6171</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>1616</v>
       </c>
@@ -28797,7 +28956,7 @@
         <v>3760</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>2789</v>
       </c>
@@ -28805,7 +28964,7 @@
         <v>5039</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>2785</v>
       </c>
@@ -28813,7 +28972,7 @@
         <v>5035</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>2790</v>
       </c>
@@ -28821,7 +28980,7 @@
         <v>5040</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>2791</v>
       </c>
@@ -28829,7 +28988,7 @@
         <v>5041</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>2792</v>
       </c>
@@ -28837,12 +28996,15 @@
         <v>5042</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>2793</v>
       </c>
       <c r="B48" t="s">
         <v>5043</v>
+      </c>
+      <c r="D48" t="s">
+        <v>6172</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -28917,30 +29079,30 @@
         <v>5052</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B66" s="5" t="s">
         <v>5048</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B67" s="2" t="s">
         <v>5053</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="1" t="s">
         <v>5071</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>2798</v>
       </c>
@@ -28948,7 +29110,7 @@
         <v>5072</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>2799</v>
       </c>
@@ -28956,7 +29118,7 @@
         <v>5073</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>2800</v>
       </c>
@@ -28964,27 +29126,30 @@
         <v>5074</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>5075</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>5076</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D78" t="s">
+        <v>6173</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>2801</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>2802</v>
       </c>
@@ -29085,7 +29250,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>2810</v>
       </c>
@@ -29093,7 +29258,7 @@
         <v>5085</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>2811</v>
       </c>
@@ -29101,7 +29266,7 @@
         <v>5086</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>2812</v>
       </c>
@@ -29109,7 +29274,7 @@
         <v>5087</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>2813</v>
       </c>
@@ -29117,7 +29282,7 @@
         <v>5088</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>169</v>
       </c>
@@ -29125,7 +29290,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>2814</v>
       </c>
@@ -29133,7 +29298,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>2815</v>
       </c>
@@ -29141,7 +29306,7 @@
         <v>5089</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>2816</v>
       </c>
@@ -29149,7 +29314,7 @@
         <v>5090</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>613</v>
       </c>
@@ -29157,7 +29322,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>2817</v>
       </c>
@@ -29165,7 +29330,7 @@
         <v>5091</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>2818</v>
       </c>
@@ -29173,7 +29338,7 @@
         <v>5092</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>613</v>
       </c>
@@ -29181,12 +29346,15 @@
         <v>236</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>2819</v>
       </c>
       <c r="B112" t="s">
         <v>5093</v>
+      </c>
+      <c r="D112" t="s">
+        <v>6174</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
@@ -30012,8 +30180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D210"/>
   <sheetViews>
-    <sheetView topLeftCell="A200" workbookViewId="0">
-      <selection activeCell="A212" sqref="A212"/>
+    <sheetView topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="D203" sqref="D203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30240,7 +30408,7 @@
         <v>5173</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>2886</v>
       </c>
@@ -30248,17 +30416,20 @@
         <v>5174</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>2887</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D51" t="s">
+        <v>6175</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B52" s="1" t="s">
         <v>684</v>
       </c>
@@ -30266,7 +30437,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>5175</v>
       </c>
@@ -30274,32 +30445,32 @@
         <v>5176</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B55" s="5" t="s">
         <v>5177</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B56" s="2" t="s">
         <v>5178</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B58" s="5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B59" s="2" t="s">
         <v>5179</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B61" s="5" t="s">
         <v>5177</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B62" s="2" t="s">
         <v>5180</v>
       </c>
@@ -30369,7 +30540,7 @@
         <v>5188</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>1619</v>
       </c>
@@ -30377,7 +30548,7 @@
         <v>3763</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>2892</v>
       </c>
@@ -30385,12 +30556,15 @@
         <v>5189</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>2893</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D83" t="s">
+        <v>6176</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>2894</v>
       </c>
@@ -30398,7 +30572,7 @@
         <v>5190</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>1882</v>
       </c>
@@ -30406,7 +30580,7 @@
         <v>4064</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>2895</v>
       </c>
@@ -30414,7 +30588,7 @@
         <v>5191</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>2896</v>
       </c>
@@ -30422,7 +30596,7 @@
         <v>2896</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>2897</v>
       </c>
@@ -30430,7 +30604,7 @@
         <v>5192</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>2898</v>
       </c>
@@ -30438,7 +30612,7 @@
         <v>5193</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>1619</v>
       </c>
@@ -30446,7 +30620,7 @@
         <v>3763</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>2840</v>
       </c>
@@ -30454,7 +30628,7 @@
         <v>5194</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>2899</v>
       </c>
@@ -30462,7 +30636,7 @@
         <v>5195</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>2900</v>
       </c>
@@ -30470,7 +30644,7 @@
         <v>5196</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>1882</v>
       </c>
@@ -30478,7 +30652,7 @@
         <v>4064</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>482</v>
       </c>
@@ -30486,7 +30660,7 @@
         <v>5197</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>2901</v>
       </c>
@@ -30731,7 +30905,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>1882</v>
       </c>
@@ -30739,7 +30913,7 @@
         <v>4064</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>1883</v>
       </c>
@@ -30747,7 +30921,7 @@
         <v>4065</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>1884</v>
       </c>
@@ -30755,12 +30929,12 @@
         <v>5221</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
         <v>1885</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>1882</v>
       </c>
@@ -30768,7 +30942,7 @@
         <v>4064</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>1886</v>
       </c>
@@ -30776,12 +30950,12 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
         <v>2922</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>2923</v>
       </c>
@@ -30789,7 +30963,7 @@
         <v>5182</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>1949</v>
       </c>
@@ -30797,7 +30971,7 @@
         <v>5222</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>2924</v>
       </c>
@@ -30805,12 +30979,15 @@
         <v>5223</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>2925</v>
       </c>
       <c r="B143" t="s">
         <v>5224</v>
+      </c>
+      <c r="D143" t="s">
+        <v>6177</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
@@ -30914,13 +31091,13 @@
         <v>4503</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
       <c r="B161" t="s">
         <v>5232</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>2931</v>
       </c>
@@ -30928,7 +31105,7 @@
         <v>5233</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>53</v>
       </c>
@@ -30936,7 +31113,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>2932</v>
       </c>
@@ -30944,7 +31121,7 @@
         <v>5234</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>2195</v>
       </c>
@@ -30952,7 +31129,7 @@
         <v>4503</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>2933</v>
       </c>
@@ -30960,15 +31137,18 @@
         <v>5235</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>2934</v>
       </c>
       <c r="B167" t="s">
         <v>5236</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D167" t="s">
+        <v>6178</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>53</v>
       </c>
@@ -30976,7 +31156,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>2935</v>
       </c>
@@ -30984,7 +31164,7 @@
         <v>5237</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>2936</v>
       </c>
@@ -30992,7 +31172,7 @@
         <v>5238</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>2195</v>
       </c>
@@ -31000,7 +31180,7 @@
         <v>4503</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>2937</v>
       </c>
@@ -31008,15 +31188,18 @@
         <v>5239</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>2938</v>
       </c>
       <c r="B173" t="s">
         <v>5240</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D173" t="s">
+        <v>6179</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>53</v>
       </c>
@@ -31024,7 +31207,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>2204</v>
       </c>
@@ -31032,7 +31215,7 @@
         <v>4505</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>2939</v>
       </c>
@@ -31201,8 +31384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D230"/>
   <sheetViews>
-    <sheetView topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="B207" sqref="B207"/>
+    <sheetView topLeftCell="A209" workbookViewId="0">
+      <selection activeCell="D210" sqref="D210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31421,7 +31604,7 @@
         <v>5277</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>2959</v>
       </c>
@@ -31429,7 +31612,7 @@
         <v>5278</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>2960</v>
       </c>
@@ -31437,7 +31620,7 @@
         <v>5279</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>1338</v>
       </c>
@@ -31445,7 +31628,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>2961</v>
       </c>
@@ -31453,7 +31636,7 @@
         <v>5280</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>2962</v>
       </c>
@@ -31461,7 +31644,7 @@
         <v>5281</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>2963</v>
       </c>
@@ -31469,7 +31652,7 @@
         <v>5282</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>2964</v>
       </c>
@@ -31477,7 +31660,7 @@
         <v>5283</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>2958</v>
       </c>
@@ -31485,7 +31668,7 @@
         <v>5277</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>2965</v>
       </c>
@@ -31493,7 +31676,7 @@
         <v>5284</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>2966</v>
       </c>
@@ -31501,12 +31684,15 @@
         <v>5285</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>2967</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D59" t="s">
+        <v>6180</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>2968</v>
       </c>
@@ -31514,7 +31700,7 @@
         <v>5286</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>2960</v>
       </c>
@@ -31522,7 +31708,7 @@
         <v>5279</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>2969</v>
       </c>
@@ -31530,7 +31716,7 @@
         <v>5287</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>2970</v>
       </c>
@@ -31538,7 +31724,7 @@
         <v>5288</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>2971</v>
       </c>
@@ -31772,7 +31958,7 @@
         <v>5311</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>169</v>
       </c>
@@ -31780,23 +31966,29 @@
         <v>236</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>2994</v>
       </c>
       <c r="B99" t="s">
         <v>5312</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D99" t="s">
+        <v>6181</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>2995</v>
       </c>
       <c r="B100" t="s">
         <v>5313</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D100" t="s">
+        <v>6182</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>2996</v>
       </c>
@@ -31804,7 +31996,7 @@
         <v>5314</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>2997</v>
       </c>
@@ -31812,7 +32004,7 @@
         <v>5315</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>2998</v>
       </c>
@@ -31820,7 +32012,7 @@
         <v>5316</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>873</v>
       </c>
@@ -31828,7 +32020,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>2999</v>
       </c>
@@ -31836,7 +32028,7 @@
         <v>5317</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>3000</v>
       </c>
@@ -31844,7 +32036,7 @@
         <v>5318</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>53</v>
       </c>
@@ -31852,7 +32044,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>3001</v>
       </c>
@@ -31860,7 +32052,7 @@
         <v>5319</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>3002</v>
       </c>
@@ -31868,7 +32060,7 @@
         <v>5320</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>873</v>
       </c>
@@ -31876,7 +32068,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>3003</v>
       </c>
@@ -31884,7 +32076,7 @@
         <v>5321</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>53</v>
       </c>
@@ -31892,7 +32084,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>3004</v>
       </c>
@@ -31900,7 +32092,7 @@
         <v>5322</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>873</v>
       </c>
@@ -31908,7 +32100,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>3005</v>
       </c>
@@ -31916,7 +32108,7 @@
         <v>5323</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>3006</v>
       </c>
@@ -31924,12 +32116,12 @@
         <v>5324</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
         <v>3007</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>53</v>
       </c>
@@ -31937,7 +32129,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>3008</v>
       </c>
@@ -31945,7 +32137,7 @@
         <v>5325</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>3009</v>
       </c>
@@ -31953,7 +32145,7 @@
         <v>5326</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>3010</v>
       </c>
@@ -31961,7 +32153,7 @@
         <v>5327</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>3011</v>
       </c>
@@ -31969,12 +32161,15 @@
         <v>5328</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>3012</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D126" t="s">
+        <v>6183</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>3013</v>
       </c>
@@ -31982,7 +32177,7 @@
         <v>5329</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>3014</v>
       </c>
@@ -32298,12 +32493,12 @@
         <v>3041</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>3042</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>2958</v>
       </c>
@@ -32311,15 +32506,18 @@
         <v>5277</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>461</v>
       </c>
       <c r="B180" t="s">
         <v>5354</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D180" t="s">
+        <v>6184</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>3043</v>
       </c>
@@ -32327,17 +32525,17 @@
         <v>5355</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>3044</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="6" t="s">
         <v>3045</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>2958</v>
       </c>
@@ -32345,7 +32543,7 @@
         <v>5277</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>3046</v>
       </c>
@@ -32353,12 +32551,12 @@
         <v>3046</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="6" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>56</v>
       </c>
@@ -32366,7 +32564,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>5357</v>
       </c>
@@ -32374,7 +32572,7 @@
         <v>5359</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>5358</v>
       </c>
@@ -32382,7 +32580,7 @@
         <v>5360</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>53</v>
       </c>
@@ -32390,7 +32588,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>3047</v>
       </c>
@@ -32398,7 +32596,7 @@
         <v>5361</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>3048</v>
       </c>
@@ -32406,27 +32604,30 @@
         <v>5362</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>3049</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B198" t="s">
         <v>5363</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D198" t="s">
+        <v>6185</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B199" s="1" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B200" t="s">
         <v>5364</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>3050</v>
       </c>
@@ -32434,22 +32635,22 @@
         <v>5365</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B202" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B203" t="s">
         <v>5366</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>3051</v>
       </c>
@@ -32457,12 +32658,12 @@
         <v>5367</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>3052</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>53</v>
       </c>
@@ -32470,7 +32671,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>3053</v>
       </c>
@@ -32575,8 +32776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D222"/>
   <sheetViews>
-    <sheetView topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="B221" sqref="B221"/>
+    <sheetView topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="D210" sqref="D210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32889,7 +33090,7 @@
         <v>5407</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>3079</v>
       </c>
@@ -32897,7 +33098,7 @@
         <v>5408</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>3080</v>
       </c>
@@ -32905,7 +33106,7 @@
         <v>5409</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>2748</v>
       </c>
@@ -32913,7 +33114,7 @@
         <v>2748</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>3081</v>
       </c>
@@ -32921,17 +33122,20 @@
         <v>5410</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>3082</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D69" t="s">
+        <v>6186</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>3083</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>3084</v>
       </c>
@@ -32939,7 +33143,7 @@
         <v>5411</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>3066</v>
       </c>
@@ -32947,7 +33151,7 @@
         <v>5395</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>3085</v>
       </c>
@@ -32955,7 +33159,7 @@
         <v>5412</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>3086</v>
       </c>
@@ -32963,7 +33167,7 @@
         <v>5413</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>3070</v>
       </c>
@@ -32971,7 +33175,7 @@
         <v>5399</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>3087</v>
       </c>
@@ -32979,7 +33183,7 @@
         <v>5414</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>3088</v>
       </c>
@@ -32987,7 +33191,7 @@
         <v>5415</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>3089</v>
       </c>
@@ -32995,7 +33199,7 @@
         <v>5416</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>3090</v>
       </c>
@@ -33003,7 +33207,7 @@
         <v>5417</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>3091</v>
       </c>
@@ -33178,7 +33382,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>3098</v>
       </c>
@@ -33186,7 +33390,7 @@
         <v>5436</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>647</v>
       </c>
@@ -33194,7 +33398,7 @@
         <v>5437</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>3096</v>
       </c>
@@ -33202,7 +33406,7 @@
         <v>5434</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>3099</v>
       </c>
@@ -33210,7 +33414,7 @@
         <v>5438</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>3100</v>
       </c>
@@ -33218,7 +33422,7 @@
         <v>5439</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>3101</v>
       </c>
@@ -33226,12 +33430,15 @@
         <v>5440</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>3102</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D119" t="s">
+        <v>6187</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>3103</v>
       </c>
@@ -33239,12 +33446,12 @@
         <v>5441</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>3104</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>53</v>
       </c>
@@ -33252,7 +33459,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>3105</v>
       </c>
@@ -33260,7 +33467,7 @@
         <v>5442</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>3106</v>
       </c>
@@ -33268,7 +33475,7 @@
         <v>5443</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>3107</v>
       </c>
@@ -33276,7 +33483,7 @@
         <v>5444</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>3096</v>
       </c>
@@ -33284,7 +33491,7 @@
         <v>5434</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>3108</v>
       </c>
@@ -33292,7 +33499,7 @@
         <v>5445</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>3109</v>
       </c>
@@ -33300,7 +33507,7 @@
         <v>5446</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>3110</v>
       </c>
@@ -33308,7 +33515,7 @@
         <v>5447</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>3111</v>
       </c>
@@ -33316,7 +33523,7 @@
         <v>5448</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>3112</v>
       </c>
@@ -33324,37 +33531,40 @@
         <v>5449</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>3113</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D132" t="s">
+        <v>6188</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>3114</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>3115</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B135" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B136" t="s">
         <v>5450</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B137" s="1" t="s">
         <v>5434</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>3116</v>
       </c>
@@ -33362,7 +33572,7 @@
         <v>5451</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>3117</v>
       </c>
@@ -33370,7 +33580,7 @@
         <v>5452</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>3118</v>
       </c>
@@ -33378,17 +33588,17 @@
         <v>5453</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>3119</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>3120</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
         <v>3121</v>
       </c>
@@ -33617,7 +33827,7 @@
         <v>5462</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>3138</v>
       </c>
@@ -33625,52 +33835,52 @@
         <v>5463</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B194" t="s">
         <v>5464</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B195" t="s">
         <v>5465</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B196" s="1" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B197" t="s">
         <v>5466</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B198" t="s">
         <v>5467</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B199" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B200" t="s">
         <v>5468</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B201" t="s">
         <v>5469</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B202" t="s">
         <v>5470</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>56</v>
       </c>
@@ -33678,12 +33888,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>3139</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>3140</v>
       </c>
@@ -33691,7 +33901,7 @@
         <v>5471</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>3141</v>
       </c>
@@ -33699,12 +33909,15 @@
         <v>5472</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>3142</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D207" t="s">
+        <v>6189</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>53</v>
       </c>
@@ -36860,8 +37073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D166"/>
   <sheetViews>
-    <sheetView topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="G172" sqref="G172"/>
+    <sheetView topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="D165" sqref="D165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36965,12 +37178,12 @@
         <v>5489</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>3159</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>3160</v>
       </c>
@@ -36978,7 +37191,7 @@
         <v>5490</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
@@ -36986,30 +37199,33 @@
         <v>684</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>3161</v>
       </c>
       <c r="B20" t="s">
         <v>5491</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>6190</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>3162</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>3163</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>3164</v>
       </c>
@@ -37017,7 +37233,7 @@
         <v>5492</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>3165</v>
       </c>
@@ -37025,7 +37241,7 @@
         <v>5493</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>3166</v>
       </c>
@@ -37033,7 +37249,7 @@
         <v>5494</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>3167</v>
       </c>
@@ -37041,27 +37257,30 @@
         <v>5495</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>2121</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>3168</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>6191</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>130</v>
       </c>
@@ -37152,7 +37371,7 @@
         <v>5531</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>183</v>
       </c>
@@ -37160,7 +37379,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>3172</v>
       </c>
@@ -37168,7 +37387,7 @@
         <v>5512</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>3173</v>
       </c>
@@ -37176,7 +37395,7 @@
         <v>5513</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>3174</v>
       </c>
@@ -37184,7 +37403,7 @@
         <v>5514</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>169</v>
       </c>
@@ -37192,7 +37411,7 @@
         <v>4052</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>3175</v>
       </c>
@@ -37200,7 +37419,7 @@
         <v>5515</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>174</v>
       </c>
@@ -37208,7 +37427,7 @@
         <v>5516</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>3176</v>
       </c>
@@ -37216,7 +37435,7 @@
         <v>5517</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>613</v>
       </c>
@@ -37224,7 +37443,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>3177</v>
       </c>
@@ -37232,15 +37451,18 @@
         <v>5518</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>3178</v>
       </c>
       <c r="B62" t="s">
         <v>5519</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D62" t="s">
+        <v>6192</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>3179</v>
       </c>
@@ -37248,7 +37470,7 @@
         <v>5520</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>3180</v>
       </c>
@@ -37524,7 +37746,7 @@
         <v>5542</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>3207</v>
       </c>
@@ -37532,12 +37754,12 @@
         <v>5543</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>3208</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>3209</v>
       </c>
@@ -37545,7 +37767,7 @@
         <v>5544</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>3210</v>
       </c>
@@ -37553,7 +37775,7 @@
         <v>5545</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>53</v>
       </c>
@@ -37561,15 +37783,18 @@
         <v>130</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>3211</v>
       </c>
       <c r="B118" t="s">
         <v>5546</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D118" t="s">
+        <v>6193</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>3212</v>
       </c>
@@ -37577,7 +37802,7 @@
         <v>5547</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>3198</v>
       </c>
@@ -37585,7 +37810,7 @@
         <v>5538</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>3213</v>
       </c>
@@ -37593,7 +37818,7 @@
         <v>5548</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>3214</v>
       </c>
@@ -37601,12 +37826,15 @@
         <v>5549</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>3215</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D123" t="s">
+        <v>6194</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>3216</v>
       </c>
@@ -37614,7 +37842,7 @@
         <v>5550</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>3217</v>
       </c>
@@ -37622,7 +37850,7 @@
         <v>5551</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>3218</v>
       </c>
@@ -37630,7 +37858,7 @@
         <v>5552</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>53</v>
       </c>
@@ -37638,7 +37866,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>3219</v>
       </c>
@@ -37646,17 +37874,20 @@
         <v>5553</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>3220</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D129" t="s">
+        <v>6195</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>3221</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>3198</v>
       </c>
@@ -37664,7 +37895,7 @@
         <v>5538</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>3222</v>
       </c>
@@ -37672,12 +37903,12 @@
         <v>3967</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>3223</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>3224</v>
       </c>
@@ -37685,7 +37916,7 @@
         <v>5554</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>3225</v>
       </c>
@@ -37693,7 +37924,7 @@
         <v>5555</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>3226</v>
       </c>
@@ -37701,7 +37932,7 @@
         <v>5556</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>3227</v>
       </c>
@@ -37709,12 +37940,15 @@
         <v>5557</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>3228</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D138" t="s">
+        <v>6196</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>3229</v>
       </c>
@@ -37722,7 +37956,7 @@
         <v>5558</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>3230</v>
       </c>
@@ -37730,7 +37964,7 @@
         <v>5559</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>3231</v>
       </c>
@@ -37738,7 +37972,7 @@
         <v>5560</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>3232</v>
       </c>
@@ -37746,7 +37980,7 @@
         <v>5561</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>53</v>
       </c>
@@ -37754,7 +37988,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>3233</v>
       </c>
@@ -37762,22 +37996,22 @@
         <v>5562</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>3198</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>1301</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>3234</v>
       </c>
@@ -37785,7 +38019,7 @@
         <v>5563</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>3198</v>
       </c>
@@ -37793,25 +38027,31 @@
         <v>5538</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>3235</v>
       </c>
       <c r="B150" t="s">
         <v>3967</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D150" t="s">
+        <v>6197</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>3236</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D151" t="s">
+        <v>6198</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>3237</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>3238</v>
       </c>
@@ -37819,27 +38059,30 @@
         <v>5564</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>2759</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D155" t="s">
+        <v>6199</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>3198</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>3239</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>3240</v>
       </c>
@@ -37847,22 +38090,25 @@
         <v>5565</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>3241</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>3242</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>3243</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D161" t="s">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>3244</v>
       </c>
@@ -37870,15 +38116,18 @@
         <v>5566</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>3245</v>
       </c>
       <c r="B163" t="s">
         <v>5567</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D163" t="s">
+        <v>6201</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>3246</v>
       </c>
@@ -37886,7 +38135,7 @@
         <v>5568</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>3247</v>
       </c>
@@ -37894,7 +38143,7 @@
         <v>5569</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>3248</v>
       </c>
@@ -37911,8 +38160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D219"/>
   <sheetViews>
-    <sheetView topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="B154" sqref="B154"/>
+    <sheetView topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="D159" sqref="D159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -38035,7 +38284,7 @@
         <v>3259</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>3260</v>
       </c>
@@ -38043,12 +38292,12 @@
         <v>5581</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>3261</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>56</v>
       </c>
@@ -38056,7 +38305,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>3262</v>
       </c>
@@ -38064,7 +38313,7 @@
         <v>5582</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>3263</v>
       </c>
@@ -38072,7 +38321,7 @@
         <v>5583</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>3264</v>
       </c>
@@ -38080,7 +38329,7 @@
         <v>5584</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>3265</v>
       </c>
@@ -38088,12 +38337,12 @@
         <v>5585</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>1948</v>
       </c>
@@ -38101,7 +38350,7 @@
         <v>4160</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>3266</v>
       </c>
@@ -38109,15 +38358,18 @@
         <v>5586</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>3267</v>
       </c>
       <c r="B31" t="s">
         <v>5587</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>6202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>3268</v>
       </c>
@@ -38490,7 +38742,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>3308</v>
       </c>
@@ -38498,7 +38750,7 @@
         <v>5622</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>3309</v>
       </c>
@@ -38506,7 +38758,7 @@
         <v>5623</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>1948</v>
       </c>
@@ -38514,7 +38766,7 @@
         <v>4160</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>3310</v>
       </c>
@@ -38522,7 +38774,7 @@
         <v>5624</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>3311</v>
       </c>
@@ -38530,15 +38782,18 @@
         <v>5625</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>3312</v>
       </c>
       <c r="B86" t="s">
         <v>5626</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D86" t="s">
+        <v>6203</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>3313</v>
       </c>
@@ -38546,12 +38801,12 @@
         <v>5627</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>2008</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>1948</v>
       </c>
@@ -38559,7 +38814,7 @@
         <v>4160</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>2009</v>
       </c>
@@ -38567,7 +38822,7 @@
         <v>5628</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>2010</v>
       </c>
@@ -38575,7 +38830,7 @@
         <v>5629</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>2011</v>
       </c>
@@ -38583,7 +38838,7 @@
         <v>5630</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>3314</v>
       </c>
@@ -38928,7 +39183,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>3353</v>
       </c>
@@ -38936,37 +39191,43 @@
         <v>5703</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>3354</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D146" t="s">
+        <v>6211</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>3340</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D147" t="s">
+        <v>6212</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>3355</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>3356</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>1338</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>3357</v>
       </c>
@@ -38974,7 +39235,7 @@
         <v>5704</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>3358</v>
       </c>
@@ -38982,7 +39243,7 @@
         <v>5705</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>3340</v>
       </c>
@@ -38990,7 +39251,7 @@
         <v>5656</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>3359</v>
       </c>
@@ -38998,7 +39259,7 @@
         <v>5706</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>3360</v>
       </c>
@@ -39006,7 +39267,7 @@
         <v>5707</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>3361</v>
       </c>
@@ -39014,7 +39275,7 @@
         <v>5708</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>3362</v>
       </c>
@@ -39022,12 +39283,15 @@
         <v>5709</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>3363</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D159" t="s">
+        <v>6213</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>3364</v>
       </c>
@@ -39044,7 +39308,7 @@
       <c r="A164" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164" s="1" t="s">
         <v>684</v>
       </c>
     </row>
@@ -39065,7 +39329,7 @@
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B167" t="s">
+      <c r="B167" s="1" t="s">
         <v>130</v>
       </c>
     </row>
@@ -39075,7 +39339,7 @@
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B169" t="s">
+      <c r="B169" s="1" t="s">
         <v>125</v>
       </c>
     </row>
@@ -39455,8 +39719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D117"/>
   <sheetViews>
-    <sheetView topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="B119" sqref="B119"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -39779,7 +40043,7 @@
         <v>5741</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>3413</v>
       </c>
@@ -39787,7 +40051,7 @@
         <v>5742</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>841</v>
       </c>
@@ -39795,7 +40059,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>1790</v>
       </c>
@@ -39803,7 +40067,7 @@
         <v>5743</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>3414</v>
       </c>
@@ -39811,7 +40075,7 @@
         <v>5744</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>3415</v>
       </c>
@@ -39819,7 +40083,7 @@
         <v>5745</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
@@ -39827,7 +40091,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>3416</v>
       </c>
@@ -39835,7 +40099,7 @@
         <v>5746</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>2939</v>
       </c>
@@ -39843,7 +40107,7 @@
         <v>2939</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>841</v>
       </c>
@@ -39851,7 +40115,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>3417</v>
       </c>
@@ -39859,7 +40123,7 @@
         <v>5747</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>3418</v>
       </c>
@@ -39867,7 +40131,7 @@
         <v>5748</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>3419</v>
       </c>
@@ -39875,7 +40139,7 @@
         <v>5749</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>3420</v>
       </c>
@@ -39883,7 +40147,7 @@
         <v>5750</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>3421</v>
       </c>
@@ -39891,7 +40155,7 @@
         <v>5641</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>3422</v>
       </c>
@@ -39899,9 +40163,12 @@
         <v>5751</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>3423</v>
+      </c>
+      <c r="D64" t="s">
+        <v>6204</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -40016,7 +40283,7 @@
         <v>5732</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>3433</v>
       </c>
@@ -40024,7 +40291,7 @@
         <v>5733</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>3434</v>
       </c>
@@ -40032,12 +40299,12 @@
         <v>5734</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>53</v>
       </c>
@@ -40045,7 +40312,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>3435</v>
       </c>
@@ -40053,12 +40320,15 @@
         <v>5756</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>3436</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D88" t="s">
+        <v>6205</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>2195</v>
       </c>
@@ -40066,7 +40336,7 @@
         <v>4503</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>3437</v>
       </c>
@@ -40074,7 +40344,7 @@
         <v>5757</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>3438</v>
       </c>
@@ -40082,7 +40352,7 @@
         <v>5758</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>3439</v>
       </c>
@@ -40090,7 +40360,7 @@
         <v>5759</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>3440</v>
       </c>
@@ -40098,7 +40368,7 @@
         <v>5760</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>3441</v>
       </c>
@@ -40106,7 +40376,7 @@
         <v>5761</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>53</v>
       </c>
@@ -40114,7 +40384,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>3442</v>
       </c>
@@ -40122,7 +40392,7 @@
         <v>5762</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>2195</v>
       </c>
@@ -40130,20 +40400,23 @@
         <v>4503</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>3443</v>
       </c>
       <c r="B98" t="s">
         <v>5763</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D98" t="s">
+        <v>6206</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>3444</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>3445</v>
       </c>
@@ -40151,7 +40424,7 @@
         <v>5764</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>3446</v>
       </c>
@@ -40159,7 +40432,7 @@
         <v>5765</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>3447</v>
       </c>
@@ -40167,7 +40440,7 @@
         <v>5766</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>53</v>
       </c>
@@ -40175,7 +40448,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>3448</v>
       </c>
@@ -40183,7 +40456,7 @@
         <v>5767</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>2195</v>
       </c>
@@ -40191,7 +40464,7 @@
         <v>4503</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>3449</v>
       </c>
@@ -40199,7 +40472,7 @@
         <v>5768</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>3450</v>
       </c>
@@ -40207,7 +40480,7 @@
         <v>5769</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>3451</v>
       </c>
@@ -40215,7 +40488,7 @@
         <v>5770</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>3452</v>
       </c>
@@ -40223,7 +40496,7 @@
         <v>5771</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>53</v>
       </c>
@@ -40231,7 +40504,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>3453</v>
       </c>
@@ -40239,7 +40512,7 @@
         <v>5772</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>2195</v>
       </c>
@@ -40296,8 +40569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D104"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+    <sheetView topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -40813,8 +41086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -41248,10 +41521,10 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D451"/>
+  <dimension ref="A1:D453"/>
   <sheetViews>
-    <sheetView topLeftCell="A392" workbookViewId="0">
-      <selection activeCell="A399" sqref="A399"/>
+    <sheetView tabSelected="1" topLeftCell="A435" workbookViewId="0">
+      <selection activeCell="D454" sqref="D454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -41577,7 +41850,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>53</v>
       </c>
@@ -41585,17 +41858,17 @@
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>3411</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>3503</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>3504</v>
       </c>
@@ -41603,7 +41876,7 @@
         <v>5873</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>3505</v>
       </c>
@@ -41611,7 +41884,7 @@
         <v>5874</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>3506</v>
       </c>
@@ -41619,7 +41892,7 @@
         <v>5875</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>3507</v>
       </c>
@@ -41627,15 +41900,18 @@
         <v>5876</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>3508</v>
       </c>
       <c r="B72" t="s">
         <v>5877</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D72" t="s">
+        <v>6207</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>56</v>
       </c>
@@ -41643,7 +41919,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>3509</v>
       </c>
@@ -41651,15 +41927,18 @@
         <v>5878</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>3510</v>
       </c>
       <c r="B75" t="s">
         <v>5879</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D75" t="s">
+        <v>6208</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>53</v>
       </c>
@@ -41667,7 +41946,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>3511</v>
       </c>
@@ -41675,7 +41954,7 @@
         <v>5880</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>3512</v>
       </c>
@@ -41683,7 +41962,7 @@
         <v>5881</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>3513</v>
       </c>
@@ -41691,7 +41970,7 @@
         <v>5882</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>56</v>
       </c>
@@ -43376,7 +43655,7 @@
         <v>3658</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
         <v>3645</v>
       </c>
@@ -43384,7 +43663,7 @@
         <v>5996</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>3659</v>
       </c>
@@ -43392,7 +43671,7 @@
         <v>6007</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>3660</v>
       </c>
@@ -43400,7 +43679,7 @@
         <v>6008</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>3661</v>
       </c>
@@ -43408,7 +43687,7 @@
         <v>6009</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>3662</v>
       </c>
@@ -43416,7 +43695,7 @@
         <v>6010</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>3663</v>
       </c>
@@ -43424,7 +43703,7 @@
         <v>3663</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>3664</v>
       </c>
@@ -43432,7 +43711,7 @@
         <v>6011</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>3665</v>
       </c>
@@ -43440,7 +43719,7 @@
         <v>6012</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>3666</v>
       </c>
@@ -43448,7 +43727,7 @@
         <v>6013</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>3667</v>
       </c>
@@ -43456,7 +43735,7 @@
         <v>6014</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>3668</v>
       </c>
@@ -43464,23 +43743,29 @@
         <v>6015</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>3669</v>
       </c>
       <c r="B349" t="s">
         <v>6016</v>
       </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D349" t="s">
+        <v>6209</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>3670</v>
       </c>
       <c r="B350" t="s">
         <v>6017</v>
       </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D350" t="s">
+        <v>6210</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>3671</v>
       </c>
@@ -44156,7 +44441,7 @@
         <v>6081</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>3729</v>
       </c>
@@ -44164,7 +44449,7 @@
         <v>6078</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>3730</v>
       </c>
@@ -44172,12 +44457,25 @@
         <v>6079</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>3731</v>
       </c>
       <c r="B451" t="s">
         <v>5883</v>
+      </c>
+      <c r="D451" t="s">
+        <v>6214</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D452" t="s">
+        <v>6215</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D453" t="s">
+        <v>6216</v>
       </c>
     </row>
   </sheetData>
